--- a/Test/Build 6/TAS eBill TEL IB_2.0_608.xlsx
+++ b/Test/Build 6/TAS eBill TEL IB_2.0_608.xlsx
@@ -17,15 +17,15 @@
     <sheet name="Test Execution Log" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Execution Log'!$A$1:$G$313</definedName>
-    <definedName name="_Toc512502381" localSheetId="2">'Test Execution Log'!$A$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Execution Log'!$A$1:$G$343</definedName>
+    <definedName name="_Toc512502381" localSheetId="2">'Test Execution Log'!$A$229</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="129">
   <si>
     <t>Department of Veterans Affairs</t>
   </si>
@@ -422,8 +422,26 @@
     <t>October 2018</t>
   </si>
   <si>
+    <t>Updated to include test execution results of testing final build T32</t>
+  </si>
+  <si>
+    <t>IB*2.0*608_T32</t>
+  </si>
+  <si>
+    <t>TC2432: CIT eBilling TS2 – Replace Fatal Error with Warning Msg for Rendering Provider on CMS 1500 US3214_Regression</t>
+  </si>
+  <si>
+    <t>TC2792: eBilling TAS US2486-TS2 RCB - Match COB Data to Payer Sequence_Skipped Production Claims_RegressionMessage_Regression</t>
+  </si>
+  <si>
+    <t>IB*2.0*608_T33</t>
+  </si>
+  <si>
+    <t>Updated to include test execution results of testing final build T33</t>
+  </si>
+  <si>
     <r>
-      <t>Version 3.0</t>
+      <t>Version 4.0</t>
     </r>
     <r>
       <rPr>
@@ -437,16 +455,10 @@
     </r>
   </si>
   <si>
-    <t>Updated to include test execution results of testing final build T32</t>
-  </si>
-  <si>
-    <t>IB*2.0*608_T32</t>
-  </si>
-  <si>
-    <t>TC2432: CIT eBilling TS2 – Replace Fatal Error with Warning Msg for Rendering Provider on CMS 1500 US3214_Regression</t>
-  </si>
-  <si>
-    <t>TC2792: eBilling TAS US2486-TS2 RCB - Match COB Data to Payer Sequence_Skipped Production Claims_RegressionMessage_Regression</t>
+    <t>TC3739 - CIT - CMN Oxygen, Enteral and Parenteral Nutrition using NO at the prompt</t>
+  </si>
+  <si>
+    <t>TC3740 - CIT - CMN Oxygen, Enteral and Parenteral Nutrition using NO at the prompt - Regression</t>
   </si>
 </sst>
 </file>
@@ -2276,7 +2288,7 @@
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="93" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
@@ -2326,7 +2338,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2399,17 +2411,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+    <row r="7" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="39">
+        <v>4</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
@@ -2459,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX314"/>
+  <dimension ref="A1:AX344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G211"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2716,7 +2736,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="58">
         <v>43376</v>
@@ -2741,14 +2761,28 @@
       <c r="P8" s="75"/>
       <c r="Q8" s="75"/>
     </row>
-    <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="80"/>
+    <row r="9" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="57">
+        <v>43392</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" s="86"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
@@ -2760,38 +2794,24 @@
       <c r="P9" s="75"/>
       <c r="Q9" s="75"/>
     </row>
-    <row r="10" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="57">
-        <v>43109</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>19</v>
-      </c>
+    <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="86"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
     </row>
     <row r="11" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
@@ -2813,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="36"/>
@@ -2834,19 +2854,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="57">
-        <v>43116</v>
+        <v>43109</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="36"/>
@@ -2867,10 +2887,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="58">
-        <v>43153</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="57">
+        <v>43116</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>13</v>
@@ -2900,10 +2920,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D14" s="58">
-        <v>43234</v>
+        <v>43153</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>13</v>
@@ -2933,10 +2953,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="58">
-        <v>43242</v>
+        <v>43234</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>13</v>
@@ -2966,10 +2986,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="58">
-        <v>43243</v>
+        <v>43242</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>13</v>
@@ -2999,10 +3019,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="58">
-        <v>43244</v>
+        <v>43243</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>13</v>
@@ -3032,10 +3052,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D18" s="58">
-        <v>43376</v>
+        <v>43244</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>13</v>
@@ -3057,14 +3077,28 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="78"/>
+    <row r="19" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="58">
+        <v>43376</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H19" s="86"/>
       <c r="I19" s="36"/>
       <c r="J19" s="37"/>
@@ -3077,17 +3111,17 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
-        <v>42</v>
+      <c r="A20" s="51" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="57">
-        <v>43109</v>
+        <v>124</v>
+      </c>
+      <c r="D20" s="58">
+        <v>43390</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>13</v>
@@ -3109,28 +3143,14 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="58">
-        <v>43117</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="21" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="86"/>
       <c r="I21" s="36"/>
       <c r="J21" s="37"/>
@@ -3149,13 +3169,13 @@
       <c r="B22" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="58">
-        <v>43153</v>
-      </c>
-      <c r="E22" s="59" t="s">
+      <c r="C22" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="57">
+        <v>43109</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="35" t="s">
@@ -3183,10 +3203,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D23" s="58">
-        <v>43234</v>
+        <v>43117</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>13</v>
@@ -3215,13 +3235,13 @@
       <c r="B24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="48" t="s">
-        <v>100</v>
+      <c r="C24" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="D24" s="58">
-        <v>43242</v>
-      </c>
-      <c r="E24" s="35" t="s">
+        <v>43153</v>
+      </c>
+      <c r="E24" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="35" t="s">
@@ -3249,10 +3269,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="58">
-        <v>43243</v>
+        <v>43234</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>13</v>
@@ -3282,10 +3302,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D26" s="58">
-        <v>43244</v>
+        <v>43242</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>13</v>
@@ -3315,10 +3335,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D27" s="58">
-        <v>43376</v>
+        <v>43243</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>13</v>
@@ -3340,14 +3360,28 @@
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
     </row>
-    <row r="28" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="78"/>
+    <row r="28" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="58">
+        <v>43244</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H28" s="86"/>
       <c r="I28" s="36"/>
       <c r="J28" s="37"/>
@@ -3360,19 +3394,19 @@
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
-        <v>59</v>
+      <c r="A29" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>51</v>
+      <c r="C29" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="D29" s="58">
-        <v>43173</v>
-      </c>
-      <c r="E29" s="59" t="s">
+        <v>43376</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="35" t="s">
@@ -3393,17 +3427,17 @@
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
-        <v>59</v>
+      <c r="A30" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D30" s="58">
-        <v>43235</v>
+        <v>43390</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>13</v>
@@ -3425,28 +3459,14 @@
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="58">
-        <v>43242</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="31" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="86"/>
       <c r="I31" s="36"/>
       <c r="J31" s="37"/>
@@ -3465,13 +3485,13 @@
       <c r="B32" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>101</v>
+      <c r="C32" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="D32" s="58">
-        <v>43243</v>
-      </c>
-      <c r="E32" s="35" t="s">
+        <v>43173</v>
+      </c>
+      <c r="E32" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="35" t="s">
@@ -3499,10 +3519,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D33" s="58">
-        <v>43377</v>
+        <v>43235</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>13</v>
@@ -3524,14 +3544,28 @@
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="78"/>
+    <row r="34" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="58">
+        <v>43242</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H34" s="86"/>
       <c r="I34" s="36"/>
       <c r="J34" s="37"/>
@@ -3544,26 +3578,26 @@
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
-        <v>43</v>
+      <c r="A35" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="57">
-        <v>43130</v>
+        <v>101</v>
+      </c>
+      <c r="D35" s="58">
+        <v>43243</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H35" s="86"/>
       <c r="I35" s="36"/>
@@ -3577,17 +3611,17 @@
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="50" t="s">
-        <v>43</v>
+      <c r="A36" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="57">
-        <v>43133</v>
+        <v>121</v>
+      </c>
+      <c r="D36" s="58">
+        <v>43377</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>13</v>
@@ -3610,26 +3644,26 @@
       <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
-        <v>43</v>
+      <c r="A37" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="57">
-        <v>43152</v>
+        <v>124</v>
+      </c>
+      <c r="D37" s="58">
+        <v>43392</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H37" s="86"/>
       <c r="I37" s="36"/>
@@ -3642,28 +3676,14 @@
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="57">
-        <v>43152</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="78" t="s">
-        <v>31</v>
-      </c>
+    <row r="38" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="86"/>
       <c r="I38" s="36"/>
       <c r="J38" s="37"/>
@@ -3683,10 +3703,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D39" s="57">
-        <v>43152</v>
+        <v>43130</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>13</v>
@@ -3695,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H39" s="86"/>
       <c r="I39" s="36"/>
@@ -3716,10 +3736,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D40" s="57">
-        <v>43163</v>
+        <v>43133</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>13</v>
@@ -3749,10 +3769,10 @@
         <v>17</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="58">
-        <v>43235</v>
+        <v>30</v>
+      </c>
+      <c r="D41" s="57">
+        <v>43152</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>13</v>
@@ -3761,7 +3781,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="78" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="H41" s="86"/>
       <c r="I41" s="36"/>
@@ -3782,19 +3802,19 @@
         <v>17</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="58">
-        <v>43243</v>
+        <v>30</v>
+      </c>
+      <c r="D42" s="57">
+        <v>43152</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G42" s="78" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H42" s="86"/>
       <c r="I42" s="36"/>
@@ -3815,19 +3835,19 @@
         <v>17</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="58">
-        <v>43244</v>
+        <v>30</v>
+      </c>
+      <c r="D43" s="57">
+        <v>43152</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G43" s="78" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H43" s="86"/>
       <c r="I43" s="36"/>
@@ -3848,10 +3868,10 @@
         <v>17</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="58">
-        <v>43377</v>
+        <v>38</v>
+      </c>
+      <c r="D44" s="57">
+        <v>43163</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>13</v>
@@ -3873,14 +3893,28 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="78"/>
+    <row r="45" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="58">
+        <v>43235</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="78" t="s">
+        <v>102</v>
+      </c>
       <c r="H45" s="86"/>
       <c r="I45" s="36"/>
       <c r="J45" s="37"/>
@@ -3892,18 +3926,18 @@
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:17" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="57">
-        <v>43171</v>
+        <v>101</v>
+      </c>
+      <c r="D46" s="58">
+        <v>43243</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>13</v>
@@ -3925,18 +3959,18 @@
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:17" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D47" s="58">
-        <v>43243</v>
+        <v>43244</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>13</v>
@@ -3958,18 +3992,18 @@
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:17" s="13" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D48" s="58">
-        <v>43244</v>
+        <v>43377</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>13</v>
@@ -3991,18 +4025,18 @@
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:17" s="13" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D49" s="58">
-        <v>43378</v>
+        <v>43392</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>13</v>
@@ -4043,9 +4077,9 @@
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="59" t="s">
-        <v>45</v>
+    <row r="51" spans="1:17" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>17</v>
@@ -4053,7 +4087,7 @@
       <c r="C51" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D51" s="57">
         <v>43171</v>
       </c>
       <c r="E51" s="35" t="s">
@@ -4076,18 +4110,18 @@
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
-        <v>45</v>
+    <row r="52" spans="1:17" s="13" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="57">
-        <v>43186</v>
+        <v>101</v>
+      </c>
+      <c r="D52" s="58">
+        <v>43243</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>13</v>
@@ -4109,18 +4143,18 @@
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
     </row>
-    <row r="53" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="s">
-        <v>45</v>
+    <row r="53" spans="1:17" s="13" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D53" s="58">
-        <v>43235</v>
+        <v>43244</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>13</v>
@@ -4142,18 +4176,18 @@
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="s">
-        <v>45</v>
+    <row r="54" spans="1:17" s="13" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D54" s="58">
-        <v>43242</v>
+        <v>43378</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>13</v>
@@ -4175,18 +4209,18 @@
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="59" t="s">
-        <v>45</v>
+    <row r="55" spans="1:17" s="13" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D55" s="58">
-        <v>43243</v>
+        <v>43392</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>13</v>
@@ -4208,28 +4242,14 @@
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
     </row>
-    <row r="56" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="58">
-        <v>43244</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="56" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="78"/>
       <c r="H56" s="86"/>
       <c r="I56" s="36"/>
       <c r="J56" s="37"/>
@@ -4249,10 +4269,10 @@
         <v>17</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="D57" s="58">
-        <v>43377</v>
+        <v>43171</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>13</v>
@@ -4274,14 +4294,28 @@
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="78"/>
+    <row r="58" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="57">
+        <v>43186</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="86"/>
       <c r="I58" s="36"/>
       <c r="J58" s="37"/>
@@ -4295,25 +4329,25 @@
     </row>
     <row r="59" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="49" t="s">
-        <v>25</v>
+      <c r="C59" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="D59" s="58">
-        <v>43142</v>
+        <v>43235</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G59" s="78" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H59" s="86"/>
       <c r="I59" s="36"/>
@@ -4328,16 +4362,16 @@
     </row>
     <row r="60" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="73" t="s">
-        <v>27</v>
+      <c r="C60" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="D60" s="58">
-        <v>43143</v>
+        <v>43242</v>
       </c>
       <c r="E60" s="35" t="s">
         <v>13</v>
@@ -4361,25 +4395,25 @@
     </row>
     <row r="61" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="73" t="s">
-        <v>27</v>
+      <c r="C61" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="D61" s="58">
-        <v>43144</v>
+        <v>43243</v>
       </c>
       <c r="E61" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G61" s="78" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H61" s="86"/>
       <c r="I61" s="36"/>
@@ -4394,16 +4428,16 @@
     </row>
     <row r="62" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="73" t="s">
-        <v>30</v>
+      <c r="C62" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="D62" s="58">
-        <v>43146</v>
+        <v>43244</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>13</v>
@@ -4427,25 +4461,25 @@
     </row>
     <row r="63" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="73" t="s">
-        <v>27</v>
+      <c r="C63" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="D63" s="58">
-        <v>43145</v>
+        <v>43377</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G63" s="78" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H63" s="86"/>
       <c r="I63" s="36"/>
@@ -4460,16 +4494,16 @@
     </row>
     <row r="64" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="73" t="s">
-        <v>30</v>
+      <c r="C64" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="D64" s="58">
-        <v>43146</v>
+        <v>43392</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>13</v>
@@ -4491,28 +4525,14 @@
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="58">
-        <v>43242</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="65" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="59"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="86"/>
       <c r="I65" s="36"/>
       <c r="J65" s="37"/>
@@ -4531,20 +4551,20 @@
       <c r="B66" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="48" t="s">
-        <v>122</v>
+      <c r="C66" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="D66" s="58">
-        <v>43377</v>
+        <v>43142</v>
       </c>
       <c r="E66" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G66" s="78" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H66" s="86"/>
       <c r="I66" s="36"/>
@@ -4557,14 +4577,28 @@
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="59"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="78"/>
+    <row r="67" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="58">
+        <v>43143</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H67" s="86"/>
       <c r="I67" s="36"/>
       <c r="J67" s="37"/>
@@ -4577,26 +4611,26 @@
       <c r="Q67" s="17"/>
     </row>
     <row r="68" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="48" t="s">
-        <v>60</v>
+      <c r="A68" s="59" t="s">
+        <v>40</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="73" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D68" s="58">
-        <v>43153</v>
-      </c>
-      <c r="E68" s="59" t="s">
+        <v>43144</v>
+      </c>
+      <c r="E68" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G68" s="78" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H68" s="86"/>
       <c r="I68" s="36"/>
@@ -4610,19 +4644,19 @@
       <c r="Q68" s="17"/>
     </row>
     <row r="69" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
-        <v>60</v>
+      <c r="A69" s="59" t="s">
+        <v>40</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="73" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D69" s="58">
-        <v>43174</v>
-      </c>
-      <c r="E69" s="59" t="s">
+        <v>43146</v>
+      </c>
+      <c r="E69" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="35" t="s">
@@ -4644,25 +4678,25 @@
     </row>
     <row r="70" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="59" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="48" t="s">
-        <v>100</v>
+      <c r="C70" s="73" t="s">
+        <v>27</v>
       </c>
       <c r="D70" s="58">
-        <v>43242</v>
+        <v>43145</v>
       </c>
       <c r="E70" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H70" s="86"/>
       <c r="I70" s="36"/>
@@ -4677,16 +4711,16 @@
     </row>
     <row r="71" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="59" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="48" t="s">
-        <v>103</v>
+      <c r="C71" s="73" t="s">
+        <v>30</v>
       </c>
       <c r="D71" s="58">
-        <v>43244</v>
+        <v>43146</v>
       </c>
       <c r="E71" s="35" t="s">
         <v>13</v>
@@ -4710,16 +4744,16 @@
     </row>
     <row r="72" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="59" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="48" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D72" s="58">
-        <v>43378</v>
+        <v>43242</v>
       </c>
       <c r="E72" s="35" t="s">
         <v>13</v>
@@ -4741,14 +4775,28 @@
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="78"/>
+    <row r="73" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="58">
+        <v>43377</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H73" s="86"/>
       <c r="I73" s="36"/>
       <c r="J73" s="37"/>
@@ -4761,26 +4809,26 @@
       <c r="Q73" s="17"/>
     </row>
     <row r="74" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="48" t="s">
-        <v>36</v>
+      <c r="A74" s="59" t="s">
+        <v>40</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="73" t="s">
-        <v>27</v>
+      <c r="C74" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="D74" s="58">
-        <v>43140</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>16</v>
+        <v>43390</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G74" s="78" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H74" s="86"/>
       <c r="I74" s="36"/>
@@ -4793,28 +4841,14 @@
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="58">
-        <v>43151</v>
-      </c>
-      <c r="E75" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="75" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="59"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="78"/>
       <c r="H75" s="86"/>
       <c r="I75" s="36"/>
       <c r="J75" s="37"/>
@@ -4828,19 +4862,19 @@
     </row>
     <row r="76" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="73" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D76" s="58">
-        <v>43174</v>
+        <v>43153</v>
       </c>
       <c r="E76" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F76" s="35" t="s">
         <v>12</v>
@@ -4861,19 +4895,19 @@
     </row>
     <row r="77" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B77" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="48" t="s">
-        <v>103</v>
+      <c r="C77" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="D77" s="58">
-        <v>43244</v>
+        <v>43174</v>
       </c>
       <c r="E77" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F77" s="35" t="s">
         <v>12</v>
@@ -4893,20 +4927,20 @@
       <c r="Q77" s="17"/>
     </row>
     <row r="78" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="48" t="s">
-        <v>36</v>
+      <c r="A78" s="59" t="s">
+        <v>122</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D78" s="58">
-        <v>43377</v>
-      </c>
-      <c r="E78" s="59" t="s">
-        <v>16</v>
+        <v>43242</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="F78" s="35" t="s">
         <v>12</v>
@@ -4925,14 +4959,28 @@
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="48"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="78"/>
+    <row r="79" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="58">
+        <v>43244</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H79" s="86"/>
       <c r="I79" s="36"/>
       <c r="J79" s="37"/>
@@ -4945,26 +4993,26 @@
       <c r="Q79" s="17"/>
     </row>
     <row r="80" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="48" t="s">
-        <v>47</v>
+      <c r="A80" s="59" t="s">
+        <v>122</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="73" t="s">
-        <v>32</v>
+      <c r="C80" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="D80" s="58">
-        <v>43154</v>
-      </c>
-      <c r="E80" s="59" t="s">
-        <v>16</v>
+        <v>43378</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G80" s="78" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H80" s="86"/>
       <c r="I80" s="36"/>
@@ -4978,20 +5026,20 @@
       <c r="Q80" s="17"/>
     </row>
     <row r="81" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="48" t="s">
-        <v>47</v>
+      <c r="A81" s="59" t="s">
+        <v>122</v>
       </c>
       <c r="B81" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="73" t="s">
-        <v>38</v>
+      <c r="C81" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="D81" s="58">
-        <v>43163</v>
-      </c>
-      <c r="E81" s="59" t="s">
-        <v>16</v>
+        <v>43392</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="F81" s="35" t="s">
         <v>12</v>
@@ -5010,28 +5058,14 @@
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="58">
-        <v>43167</v>
-      </c>
-      <c r="E82" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="78" t="s">
-        <v>55</v>
-      </c>
+    <row r="82" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="48"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="78"/>
       <c r="H82" s="86"/>
       <c r="I82" s="36"/>
       <c r="J82" s="37"/>
@@ -5045,16 +5079,16 @@
     </row>
     <row r="83" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B83" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D83" s="58">
-        <v>43167</v>
+        <v>43140</v>
       </c>
       <c r="E83" s="59" t="s">
         <v>16</v>
@@ -5063,7 +5097,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="78" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H83" s="86"/>
       <c r="I83" s="36"/>
@@ -5078,16 +5112,16 @@
     </row>
     <row r="84" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B84" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D84" s="58">
-        <v>43173</v>
+        <v>43151</v>
       </c>
       <c r="E84" s="59" t="s">
         <v>16</v>
@@ -5111,16 +5145,16 @@
     </row>
     <row r="85" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="48" t="s">
-        <v>103</v>
+      <c r="C85" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="D85" s="58">
-        <v>43244</v>
+        <v>43174</v>
       </c>
       <c r="E85" s="59" t="s">
         <v>16</v>
@@ -5144,16 +5178,16 @@
     </row>
     <row r="86" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B86" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D86" s="58">
-        <v>43378</v>
+        <v>43244</v>
       </c>
       <c r="E86" s="59" t="s">
         <v>16</v>
@@ -5175,14 +5209,28 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="78"/>
+    <row r="87" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="58">
+        <v>43377</v>
+      </c>
+      <c r="E87" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H87" s="86"/>
       <c r="I87" s="36"/>
       <c r="J87" s="37"/>
@@ -5195,17 +5243,17 @@
       <c r="Q87" s="17"/>
     </row>
     <row r="88" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="59" t="s">
-        <v>104</v>
+      <c r="A88" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="B88" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="58">
-        <v>43167</v>
+      <c r="C88" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="57">
+        <v>43391</v>
       </c>
       <c r="E88" s="59" t="s">
         <v>16</v>
@@ -5227,28 +5275,14 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="58">
-        <v>43244</v>
-      </c>
-      <c r="E89" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="89" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="48"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="86"/>
       <c r="I89" s="36"/>
       <c r="J89" s="37"/>
@@ -5261,26 +5295,26 @@
       <c r="Q89" s="17"/>
     </row>
     <row r="90" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="35" t="s">
-        <v>104</v>
+      <c r="A90" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B90" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" s="58">
-        <v>43378</v>
+      <c r="C90" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="57">
+        <v>43154</v>
       </c>
       <c r="E90" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G90" s="78" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="H90" s="86"/>
       <c r="I90" s="36"/>
@@ -5293,14 +5327,28 @@
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="59"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="78"/>
+    <row r="91" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="57">
+        <v>43163</v>
+      </c>
+      <c r="E91" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H91" s="86"/>
       <c r="I91" s="36"/>
       <c r="J91" s="37"/>
@@ -5313,17 +5361,17 @@
       <c r="Q91" s="17"/>
     </row>
     <row r="92" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="59" t="s">
-        <v>39</v>
+      <c r="A92" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B92" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" s="58">
-        <v>43154</v>
+        <v>51</v>
+      </c>
+      <c r="D92" s="57">
+        <v>43167</v>
       </c>
       <c r="E92" s="59" t="s">
         <v>16</v>
@@ -5332,7 +5380,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="78" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H92" s="86"/>
       <c r="I92" s="36"/>
@@ -5346,26 +5394,26 @@
       <c r="Q92" s="17"/>
     </row>
     <row r="93" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="59" t="s">
-        <v>39</v>
+      <c r="A93" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B93" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="58">
-        <v>43163</v>
+        <v>51</v>
+      </c>
+      <c r="D93" s="57">
+        <v>43167</v>
       </c>
       <c r="E93" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G93" s="78" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H93" s="86"/>
       <c r="I93" s="36"/>
@@ -5379,17 +5427,17 @@
       <c r="Q93" s="17"/>
     </row>
     <row r="94" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="59" t="s">
-        <v>39</v>
+      <c r="A94" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="58">
-        <v>43244</v>
+      <c r="C94" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="57">
+        <v>43173</v>
       </c>
       <c r="E94" s="59" t="s">
         <v>16</v>
@@ -5412,17 +5460,17 @@
       <c r="Q94" s="17"/>
     </row>
     <row r="95" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="59" t="s">
-        <v>39</v>
+      <c r="A95" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B95" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="58">
-        <v>43376</v>
+        <v>103</v>
+      </c>
+      <c r="D95" s="57">
+        <v>43244</v>
       </c>
       <c r="E95" s="59" t="s">
         <v>16</v>
@@ -5444,14 +5492,28 @@
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
     </row>
-    <row r="96" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="59"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="78"/>
+    <row r="96" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="57">
+        <v>43378</v>
+      </c>
+      <c r="E96" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H96" s="86"/>
       <c r="I96" s="36"/>
       <c r="J96" s="37"/>
@@ -5464,26 +5526,26 @@
       <c r="Q96" s="17"/>
     </row>
     <row r="97" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="59" t="s">
-        <v>49</v>
+      <c r="A97" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B97" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="58">
-        <v>43157</v>
+      <c r="C97" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="57">
+        <v>43391</v>
       </c>
       <c r="E97" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G97" s="78" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H97" s="86"/>
       <c r="I97" s="36"/>
@@ -5496,28 +5558,14 @@
       <c r="P97" s="17"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="58">
-        <v>43166</v>
-      </c>
-      <c r="E98" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="98" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="59"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="78"/>
       <c r="H98" s="86"/>
       <c r="I98" s="36"/>
       <c r="J98" s="37"/>
@@ -5531,16 +5579,16 @@
     </row>
     <row r="99" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="59" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B99" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="48" t="s">
-        <v>103</v>
+      <c r="C99" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="D99" s="58">
-        <v>43244</v>
+        <v>43167</v>
       </c>
       <c r="E99" s="59" t="s">
         <v>16</v>
@@ -5564,16 +5612,16 @@
     </row>
     <row r="100" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="59" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B100" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="58">
-        <v>43376</v>
+        <v>103</v>
+      </c>
+      <c r="D100" s="57">
+        <v>43244</v>
       </c>
       <c r="E100" s="59" t="s">
         <v>16</v>
@@ -5595,14 +5643,28 @@
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="59"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="78"/>
+    <row r="101" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="57">
+        <v>43378</v>
+      </c>
+      <c r="E101" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H101" s="86"/>
       <c r="I101" s="36"/>
       <c r="J101" s="37"/>
@@ -5616,25 +5678,25 @@
     </row>
     <row r="102" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B102" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D102" s="58">
-        <v>43200</v>
+      <c r="C102" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D102" s="57">
+        <v>43389</v>
       </c>
       <c r="E102" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G102" s="78" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H102" s="86"/>
       <c r="I102" s="36"/>
@@ -5647,28 +5709,14 @@
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" s="58">
-        <v>43202</v>
-      </c>
-      <c r="E103" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="103" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="59"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="86"/>
       <c r="I103" s="36"/>
       <c r="J103" s="37"/>
@@ -5681,17 +5729,17 @@
       <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="35" t="s">
-        <v>97</v>
+      <c r="A104" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B104" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="58">
-        <v>43213</v>
+        <v>32</v>
+      </c>
+      <c r="D104" s="57">
+        <v>43154</v>
       </c>
       <c r="E104" s="59" t="s">
         <v>16</v>
@@ -5700,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="78" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H104" s="86"/>
       <c r="I104" s="36"/>
@@ -5714,17 +5762,17 @@
       <c r="Q104" s="17"/>
     </row>
     <row r="105" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="35" t="s">
-        <v>97</v>
+      <c r="A105" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D105" s="58">
-        <v>43213</v>
+        <v>38</v>
+      </c>
+      <c r="D105" s="57">
+        <v>43163</v>
       </c>
       <c r="E105" s="59" t="s">
         <v>16</v>
@@ -5747,26 +5795,26 @@
       <c r="Q105" s="17"/>
     </row>
     <row r="106" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="35" t="s">
-        <v>97</v>
+      <c r="A106" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B106" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" s="58">
-        <v>43216</v>
+      <c r="C106" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="57">
+        <v>43244</v>
       </c>
       <c r="E106" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G106" s="78" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H106" s="86"/>
       <c r="I106" s="36"/>
@@ -5780,26 +5828,26 @@
       <c r="Q106" s="17"/>
     </row>
     <row r="107" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="s">
-        <v>97</v>
+      <c r="A107" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="58">
-        <v>43216</v>
+      <c r="C107" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" s="57">
+        <v>43376</v>
       </c>
       <c r="E107" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G107" s="78" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H107" s="86"/>
       <c r="I107" s="36"/>
@@ -5813,26 +5861,26 @@
       <c r="Q107" s="17"/>
     </row>
     <row r="108" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="35" t="s">
-        <v>97</v>
+      <c r="A108" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B108" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D108" s="58">
-        <v>43216</v>
+      <c r="C108" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="57">
+        <v>43390</v>
       </c>
       <c r="E108" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F108" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G108" s="78" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H108" s="86"/>
       <c r="I108" s="36"/>
@@ -5845,28 +5893,14 @@
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="58">
-        <v>43217</v>
-      </c>
-      <c r="E109" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="109" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="59"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="86"/>
       <c r="I109" s="36"/>
       <c r="J109" s="37"/>
@@ -5879,26 +5913,26 @@
       <c r="Q109" s="17"/>
     </row>
     <row r="110" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
-        <v>97</v>
+      <c r="A110" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="B110" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="48" t="s">
-        <v>103</v>
+      <c r="C110" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="D110" s="58">
-        <v>43244</v>
+        <v>43157</v>
       </c>
       <c r="E110" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F110" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G110" s="78" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H110" s="86"/>
       <c r="I110" s="36"/>
@@ -5912,17 +5946,17 @@
       <c r="Q110" s="17"/>
     </row>
     <row r="111" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="35" t="s">
-        <v>97</v>
+      <c r="A111" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="B111" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C111" s="48" t="s">
-        <v>122</v>
+      <c r="C111" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D111" s="58">
-        <v>43378</v>
+        <v>43166</v>
       </c>
       <c r="E111" s="59" t="s">
         <v>16</v>
@@ -5944,14 +5978,28 @@
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="59"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="78"/>
+    <row r="112" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D112" s="58">
+        <v>43244</v>
+      </c>
+      <c r="E112" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H112" s="86"/>
       <c r="I112" s="36"/>
       <c r="J112" s="37"/>
@@ -5963,27 +6011,27 @@
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="35" t="s">
-        <v>61</v>
+    <row r="113" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="B113" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="73" t="s">
-        <v>38</v>
+      <c r="C113" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="D113" s="58">
-        <v>43166</v>
+        <v>43376</v>
       </c>
       <c r="E113" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G113" s="78" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H113" s="86"/>
       <c r="I113" s="36"/>
@@ -5996,18 +6044,18 @@
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35" t="s">
-        <v>61</v>
+    <row r="114" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="B114" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C114" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D114" s="58">
-        <v>43170</v>
+      <c r="C114" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="57">
+        <v>43390</v>
       </c>
       <c r="E114" s="59" t="s">
         <v>16</v>
@@ -6030,27 +6078,13 @@
       <c r="Q114" s="17"/>
     </row>
     <row r="115" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" s="58">
-        <v>43166</v>
-      </c>
-      <c r="E115" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="78" t="s">
-        <v>53</v>
-      </c>
+      <c r="A115" s="59"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="78"/>
       <c r="H115" s="86"/>
       <c r="I115" s="36"/>
       <c r="J115" s="37"/>
@@ -6062,27 +6096,27 @@
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B116" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="73" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D116" s="58">
-        <v>43173</v>
+        <v>43200</v>
       </c>
       <c r="E116" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G116" s="78" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H116" s="86"/>
       <c r="I116" s="36"/>
@@ -6095,27 +6129,27 @@
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B117" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C117" s="73" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D117" s="58">
-        <v>43173</v>
+        <v>43202</v>
       </c>
       <c r="E117" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G117" s="78" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H117" s="86"/>
       <c r="I117" s="36"/>
@@ -6128,27 +6162,27 @@
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B118" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C118" s="73" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D118" s="58">
-        <v>43186</v>
+        <v>43213</v>
       </c>
       <c r="E118" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G118" s="78" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H118" s="86"/>
       <c r="I118" s="36"/>
@@ -6161,27 +6195,27 @@
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B119" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="73" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D119" s="58">
-        <v>43179</v>
+        <v>43213</v>
       </c>
       <c r="E119" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G119" s="78" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H119" s="86"/>
       <c r="I119" s="36"/>
@@ -6194,27 +6228,27 @@
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B120" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="73" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D120" s="58">
-        <v>43187</v>
+        <v>43216</v>
       </c>
       <c r="E120" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G120" s="78" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H120" s="86"/>
       <c r="I120" s="36"/>
@@ -6227,18 +6261,18 @@
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B121" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="73" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D121" s="58">
-        <v>43180</v>
+        <v>43216</v>
       </c>
       <c r="E121" s="59" t="s">
         <v>16</v>
@@ -6247,7 +6281,7 @@
         <v>15</v>
       </c>
       <c r="G121" s="78" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H121" s="86"/>
       <c r="I121" s="36"/>
@@ -6260,27 +6294,27 @@
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B122" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="73" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D122" s="58">
-        <v>43186</v>
+        <v>43216</v>
       </c>
       <c r="E122" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G122" s="78" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="H122" s="86"/>
       <c r="I122" s="36"/>
@@ -6293,27 +6327,27 @@
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
     </row>
-    <row r="123" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B123" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C123" s="73" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D123" s="58">
-        <v>43187</v>
+        <v>43217</v>
       </c>
       <c r="E123" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G123" s="78" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H123" s="86"/>
       <c r="I123" s="36"/>
@@ -6326,18 +6360,18 @@
       <c r="P123" s="17"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B124" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="73" t="s">
-        <v>68</v>
+      <c r="C124" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="D124" s="58">
-        <v>43195</v>
+        <v>43244</v>
       </c>
       <c r="E124" s="59" t="s">
         <v>16</v>
@@ -6359,27 +6393,27 @@
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B125" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C125" s="73" t="s">
-        <v>68</v>
+      <c r="C125" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="D125" s="58">
-        <v>43199</v>
+        <v>43378</v>
       </c>
       <c r="E125" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G125" s="78" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="H125" s="86"/>
       <c r="I125" s="36"/>
@@ -6392,18 +6426,18 @@
       <c r="P125" s="17"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="35" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B126" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D126" s="58">
-        <v>43202</v>
+      <c r="C126" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126" s="57">
+        <v>43392</v>
       </c>
       <c r="E126" s="59" t="s">
         <v>16</v>
@@ -6425,28 +6459,14 @@
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B127" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D127" s="58">
-        <v>43223</v>
-      </c>
-      <c r="E127" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="78" t="s">
-        <v>116</v>
-      </c>
+    <row r="127" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="59"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="78"/>
       <c r="H127" s="86"/>
       <c r="I127" s="36"/>
       <c r="J127" s="37"/>
@@ -6458,18 +6478,18 @@
       <c r="P127" s="17"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B128" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="50" t="s">
-        <v>108</v>
+      <c r="C128" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D128" s="58">
-        <v>43228</v>
+        <v>43166</v>
       </c>
       <c r="E128" s="59" t="s">
         <v>16</v>
@@ -6478,7 +6498,7 @@
         <v>15</v>
       </c>
       <c r="G128" s="78" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H128" s="86"/>
       <c r="I128" s="36"/>
@@ -6491,18 +6511,18 @@
       <c r="P128" s="17"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B129" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="50" t="s">
-        <v>99</v>
+      <c r="C129" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="D129" s="58">
-        <v>43230</v>
+        <v>43170</v>
       </c>
       <c r="E129" s="59" t="s">
         <v>16</v>
@@ -6524,27 +6544,27 @@
       <c r="P129" s="17"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B130" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="48" t="s">
-        <v>103</v>
+      <c r="C130" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D130" s="58">
-        <v>43244</v>
+        <v>43166</v>
       </c>
       <c r="E130" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G130" s="78" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="H130" s="86"/>
       <c r="I130" s="36"/>
@@ -6557,18 +6577,18 @@
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
     </row>
-    <row r="131" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B131" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="48" t="s">
-        <v>122</v>
+      <c r="C131" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="D131" s="58">
-        <v>43375</v>
+        <v>43173</v>
       </c>
       <c r="E131" s="59" t="s">
         <v>16</v>
@@ -6591,13 +6611,27 @@
       <c r="Q131" s="17"/>
     </row>
     <row r="132" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="35"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="78"/>
+      <c r="A132" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" s="58">
+        <v>43173</v>
+      </c>
+      <c r="E132" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="78" t="s">
+        <v>63</v>
+      </c>
       <c r="H132" s="86"/>
       <c r="I132" s="36"/>
       <c r="J132" s="37"/>
@@ -6609,21 +6643,21 @@
       <c r="P132" s="17"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="35" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B133" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C133" s="50" t="s">
-        <v>99</v>
+      <c r="C133" s="73" t="s">
+        <v>64</v>
       </c>
       <c r="D133" s="58">
-        <v>43235</v>
+        <v>43186</v>
       </c>
       <c r="E133" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F133" s="35" t="s">
         <v>12</v>
@@ -6642,27 +6676,27 @@
       <c r="P133" s="17"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="35" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B134" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="50" t="s">
-        <v>100</v>
+      <c r="C134" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="D134" s="58">
-        <v>43242</v>
+        <v>43179</v>
       </c>
       <c r="E134" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G134" s="78" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H134" s="86"/>
       <c r="I134" s="36"/>
@@ -6675,21 +6709,21 @@
       <c r="P134" s="17"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="35" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B135" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C135" s="50" t="s">
-        <v>101</v>
+      <c r="C135" s="73" t="s">
+        <v>64</v>
       </c>
       <c r="D135" s="58">
-        <v>43243</v>
+        <v>43187</v>
       </c>
       <c r="E135" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F135" s="35" t="s">
         <v>12</v>
@@ -6708,27 +6742,27 @@
       <c r="P135" s="17"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="35" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B136" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="50" t="s">
-        <v>103</v>
+      <c r="C136" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="D136" s="58">
-        <v>43249</v>
+        <v>43180</v>
       </c>
       <c r="E136" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G136" s="78" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H136" s="86"/>
       <c r="I136" s="36"/>
@@ -6741,21 +6775,21 @@
       <c r="P136" s="17"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="35" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B137" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C137" s="50" t="s">
-        <v>122</v>
+      <c r="C137" s="73" t="s">
+        <v>64</v>
       </c>
       <c r="D137" s="58">
-        <v>43377</v>
+        <v>43186</v>
       </c>
       <c r="E137" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F137" s="35" t="s">
         <v>12</v>
@@ -6775,13 +6809,27 @@
       <c r="Q137" s="17"/>
     </row>
     <row r="138" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="59"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="78"/>
+      <c r="A138" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D138" s="58">
+        <v>43187</v>
+      </c>
+      <c r="E138" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="78" t="s">
+        <v>70</v>
+      </c>
       <c r="H138" s="86"/>
       <c r="I138" s="36"/>
       <c r="J138" s="37"/>
@@ -6793,27 +6841,27 @@
       <c r="P138" s="17"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="59" t="s">
-        <v>71</v>
+    <row r="139" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B139" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="73" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D139" s="58">
-        <v>43193</v>
+        <v>43195</v>
       </c>
       <c r="E139" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F139" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G139" s="78" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H139" s="86"/>
       <c r="I139" s="36"/>
@@ -6826,9 +6874,9 @@
       <c r="P139" s="17"/>
       <c r="Q139" s="17"/>
     </row>
-    <row r="140" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="59" t="s">
-        <v>71</v>
+    <row r="140" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B140" s="35" t="s">
         <v>17</v>
@@ -6837,16 +6885,16 @@
         <v>68</v>
       </c>
       <c r="D140" s="58">
-        <v>43194</v>
+        <v>43199</v>
       </c>
       <c r="E140" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G140" s="78" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H140" s="86"/>
       <c r="I140" s="36"/>
@@ -6859,27 +6907,27 @@
       <c r="P140" s="17"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="59" t="s">
-        <v>71</v>
+    <row r="141" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B141" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C141" s="73" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D141" s="58">
-        <v>43195</v>
+        <v>43202</v>
       </c>
       <c r="E141" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G141" s="78" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H141" s="86"/>
       <c r="I141" s="36"/>
@@ -6892,27 +6940,27 @@
       <c r="P141" s="17"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="59" t="s">
-        <v>71</v>
+    <row r="142" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B142" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="73" t="s">
-        <v>74</v>
+      <c r="C142" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="D142" s="58">
-        <v>43199</v>
+        <v>43223</v>
       </c>
       <c r="E142" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G142" s="78" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="H142" s="86"/>
       <c r="I142" s="36"/>
@@ -6925,27 +6973,27 @@
       <c r="P142" s="17"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="59" t="s">
-        <v>71</v>
+    <row r="143" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B143" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C143" s="73" t="s">
-        <v>74</v>
+      <c r="C143" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="D143" s="58">
-        <v>43201</v>
+        <v>43228</v>
       </c>
       <c r="E143" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F143" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G143" s="78" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="H143" s="86"/>
       <c r="I143" s="36"/>
@@ -6958,21 +7006,21 @@
       <c r="P143" s="17"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="59" t="s">
-        <v>71</v>
+    <row r="144" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B144" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="73" t="s">
-        <v>77</v>
+      <c r="C144" s="50" t="s">
+        <v>99</v>
       </c>
       <c r="D144" s="58">
-        <v>43203</v>
+        <v>43230</v>
       </c>
       <c r="E144" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F144" s="35" t="s">
         <v>12</v>
@@ -6991,9 +7039,9 @@
       <c r="P144" s="17"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="59" t="s">
-        <v>71</v>
+    <row r="145" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B145" s="35" t="s">
         <v>17</v>
@@ -7002,10 +7050,10 @@
         <v>103</v>
       </c>
       <c r="D145" s="58">
-        <v>43250</v>
+        <v>43244</v>
       </c>
       <c r="E145" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F145" s="35" t="s">
         <v>12</v>
@@ -7024,21 +7072,21 @@
       <c r="P145" s="17"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="59" t="s">
-        <v>71</v>
+    <row r="146" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B146" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C146" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D146" s="58">
         <v>43375</v>
       </c>
       <c r="E146" s="59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F146" s="35" t="s">
         <v>12</v>
@@ -7058,16 +7106,30 @@
       <c r="Q146" s="17"/>
     </row>
     <row r="147" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="35"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="48"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="78"/>
+      <c r="A147" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D147" s="57">
+        <v>43391</v>
+      </c>
+      <c r="E147" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H147" s="86"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="37"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>
@@ -7076,31 +7138,17 @@
       <c r="P147" s="17"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B148" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="D148" s="58">
-        <v>43188</v>
-      </c>
-      <c r="E148" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="78" t="s">
-        <v>69</v>
-      </c>
+    <row r="148" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="35"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="78"/>
       <c r="H148" s="86"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="37"/>
       <c r="K148" s="17"/>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
@@ -7109,18 +7157,18 @@
       <c r="P148" s="17"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B149" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C149" s="73" t="s">
-        <v>68</v>
+      <c r="C149" s="50" t="s">
+        <v>99</v>
       </c>
       <c r="D149" s="58">
-        <v>43199</v>
+        <v>43235</v>
       </c>
       <c r="E149" s="59" t="s">
         <v>13</v>
@@ -7132,8 +7180,8 @@
         <v>14</v>
       </c>
       <c r="H149" s="86"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="37"/>
       <c r="K149" s="17"/>
       <c r="L149" s="17"/>
       <c r="M149" s="17"/>
@@ -7144,29 +7192,29 @@
     </row>
     <row r="150" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B150" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C150" s="73" t="s">
-        <v>81</v>
+      <c r="C150" s="50" t="s">
+        <v>100</v>
       </c>
       <c r="D150" s="58">
-        <v>43209</v>
+        <v>43242</v>
       </c>
       <c r="E150" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F150" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G150" s="78" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H150" s="86"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="17"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
       <c r="K150" s="17"/>
       <c r="L150" s="17"/>
       <c r="M150" s="17"/>
@@ -7177,16 +7225,16 @@
     </row>
     <row r="151" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B151" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C151" s="73" t="s">
-        <v>83</v>
+      <c r="C151" s="50" t="s">
+        <v>101</v>
       </c>
       <c r="D151" s="58">
-        <v>43213</v>
+        <v>43243</v>
       </c>
       <c r="E151" s="59" t="s">
         <v>13</v>
@@ -7198,8 +7246,8 @@
         <v>14</v>
       </c>
       <c r="H151" s="86"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="37"/>
       <c r="K151" s="17"/>
       <c r="L151" s="17"/>
       <c r="M151" s="17"/>
@@ -7210,29 +7258,29 @@
     </row>
     <row r="152" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B152" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C152" s="73" t="s">
-        <v>84</v>
+      <c r="C152" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="D152" s="58">
-        <v>43220</v>
+        <v>43249</v>
       </c>
       <c r="E152" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G152" s="78" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H152" s="86"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="17"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="37"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17"/>
       <c r="M152" s="17"/>
@@ -7243,16 +7291,16 @@
     </row>
     <row r="153" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B153" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="48" t="s">
-        <v>105</v>
+      <c r="C153" s="50" t="s">
+        <v>121</v>
       </c>
       <c r="D153" s="58">
-        <v>43221</v>
+        <v>43377</v>
       </c>
       <c r="E153" s="59" t="s">
         <v>13</v>
@@ -7264,8 +7312,8 @@
         <v>14</v>
       </c>
       <c r="H153" s="86"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="37"/>
       <c r="K153" s="17"/>
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>
@@ -7276,16 +7324,16 @@
     </row>
     <row r="154" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B154" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C154" s="48" t="s">
-        <v>103</v>
+      <c r="C154" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="D154" s="58">
-        <v>43249</v>
+        <v>43392</v>
       </c>
       <c r="E154" s="59" t="s">
         <v>13</v>
@@ -7297,8 +7345,8 @@
         <v>14</v>
       </c>
       <c r="H154" s="86"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="17"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="37"/>
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
@@ -7307,31 +7355,17 @@
       <c r="P154" s="17"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B155" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D155" s="58">
-        <v>43249</v>
-      </c>
-      <c r="E155" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="155" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="59"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="78"/>
       <c r="H155" s="86"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="37"/>
       <c r="K155" s="17"/>
       <c r="L155" s="17"/>
       <c r="M155" s="17"/>
@@ -7340,17 +7374,31 @@
       <c r="P155" s="17"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="35"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="59"/>
-      <c r="F156" s="59"/>
-      <c r="G156" s="78"/>
+    <row r="156" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B156" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" s="58">
+        <v>43193</v>
+      </c>
+      <c r="E156" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="78" t="s">
+        <v>72</v>
+      </c>
       <c r="H156" s="86"/>
-      <c r="I156" s="17"/>
-      <c r="J156" s="17"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="37"/>
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
       <c r="M156" s="17"/>
@@ -7359,18 +7407,18 @@
       <c r="P156" s="17"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="35" t="s">
-        <v>124</v>
+    <row r="157" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B157" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C157" s="50" t="s">
-        <v>99</v>
+      <c r="C157" s="73" t="s">
+        <v>68</v>
       </c>
       <c r="D157" s="58">
-        <v>43235</v>
+        <v>43194</v>
       </c>
       <c r="E157" s="59" t="s">
         <v>13</v>
@@ -7382,8 +7430,8 @@
         <v>14</v>
       </c>
       <c r="H157" s="86"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="37"/>
       <c r="K157" s="17"/>
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
@@ -7392,31 +7440,31 @@
       <c r="P157" s="17"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="35" t="s">
-        <v>124</v>
+    <row r="158" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B158" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C158" s="50" t="s">
-        <v>100</v>
+      <c r="C158" s="73" t="s">
+        <v>68</v>
       </c>
       <c r="D158" s="58">
-        <v>43242</v>
+        <v>43195</v>
       </c>
       <c r="E158" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G158" s="78" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H158" s="86"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="17"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="37"/>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
@@ -7425,18 +7473,18 @@
       <c r="P158" s="17"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A159" s="35" t="s">
-        <v>124</v>
+    <row r="159" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B159" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="50" t="s">
-        <v>101</v>
+      <c r="C159" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="D159" s="58">
-        <v>43243</v>
+        <v>43199</v>
       </c>
       <c r="E159" s="59" t="s">
         <v>13</v>
@@ -7448,8 +7496,8 @@
         <v>14</v>
       </c>
       <c r="H159" s="86"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="37"/>
       <c r="K159" s="17"/>
       <c r="L159" s="17"/>
       <c r="M159" s="17"/>
@@ -7458,31 +7506,31 @@
       <c r="P159" s="17"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A160" s="35" t="s">
-        <v>124</v>
+    <row r="160" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B160" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C160" s="50" t="s">
-        <v>103</v>
+      <c r="C160" s="73" t="s">
+        <v>74</v>
       </c>
       <c r="D160" s="58">
-        <v>43249</v>
+        <v>43201</v>
       </c>
       <c r="E160" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G160" s="78" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="H160" s="86"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="37"/>
       <c r="K160" s="17"/>
       <c r="L160" s="17"/>
       <c r="M160" s="17"/>
@@ -7491,18 +7539,18 @@
       <c r="P160" s="17"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A161" s="35" t="s">
-        <v>124</v>
+    <row r="161" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B161" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C161" s="50" t="s">
-        <v>122</v>
+      <c r="C161" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="D161" s="58">
-        <v>43377</v>
+        <v>43203</v>
       </c>
       <c r="E161" s="59" t="s">
         <v>13</v>
@@ -7514,8 +7562,8 @@
         <v>14</v>
       </c>
       <c r="H161" s="86"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="37"/>
       <c r="K161" s="17"/>
       <c r="L161" s="17"/>
       <c r="M161" s="17"/>
@@ -7524,17 +7572,31 @@
       <c r="P161" s="17"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="35"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="59"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="78"/>
+    <row r="162" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B162" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D162" s="58">
+        <v>43250</v>
+      </c>
+      <c r="E162" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H162" s="86"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="37"/>
       <c r="K162" s="17"/>
       <c r="L162" s="17"/>
       <c r="M162" s="17"/>
@@ -7544,20 +7606,20 @@
       <c r="Q162" s="17"/>
     </row>
     <row r="163" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="35" t="s">
-        <v>93</v>
+      <c r="A163" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B163" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C163" s="73" t="s">
-        <v>30</v>
+      <c r="C163" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="D163" s="58">
-        <v>43147</v>
+        <v>43375</v>
       </c>
       <c r="E163" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F163" s="35" t="s">
         <v>12</v>
@@ -7566,8 +7628,8 @@
         <v>14</v>
       </c>
       <c r="H163" s="86"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="37"/>
       <c r="K163" s="17"/>
       <c r="L163" s="17"/>
       <c r="M163" s="17"/>
@@ -7577,20 +7639,20 @@
       <c r="Q163" s="17"/>
     </row>
     <row r="164" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="35" t="s">
-        <v>93</v>
+      <c r="A164" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B164" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C164" s="50" t="s">
-        <v>103</v>
+      <c r="C164" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="D164" s="58">
-        <v>43249</v>
+        <v>43391</v>
       </c>
       <c r="E164" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F164" s="35" t="s">
         <v>12</v>
@@ -7599,8 +7661,8 @@
         <v>14</v>
       </c>
       <c r="H164" s="86"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="37"/>
       <c r="K164" s="17"/>
       <c r="L164" s="17"/>
       <c r="M164" s="17"/>
@@ -7609,28 +7671,14 @@
       <c r="P164" s="17"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B165" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D165" s="58">
-        <v>43375</v>
-      </c>
-      <c r="E165" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="165" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="35"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="48"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="78"/>
       <c r="H165" s="86"/>
       <c r="I165" s="17"/>
       <c r="J165" s="17"/>
@@ -7642,14 +7690,28 @@
       <c r="P165" s="17"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="35"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="50"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="78"/>
+    <row r="166" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D166" s="58">
+        <v>43188</v>
+      </c>
+      <c r="E166" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="78" t="s">
+        <v>69</v>
+      </c>
       <c r="H166" s="86"/>
       <c r="I166" s="17"/>
       <c r="J166" s="17"/>
@@ -7663,19 +7725,19 @@
     </row>
     <row r="167" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="35" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B167" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C167" s="73" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D167" s="58">
-        <v>43171</v>
+        <v>43199</v>
       </c>
       <c r="E167" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F167" s="35" t="s">
         <v>12</v>
@@ -7696,25 +7758,25 @@
     </row>
     <row r="168" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="35" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B168" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C168" s="50" t="s">
-        <v>103</v>
+      <c r="C168" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="D168" s="58">
-        <v>43249</v>
+        <v>43209</v>
       </c>
       <c r="E168" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F168" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G168" s="78" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="H168" s="86"/>
       <c r="I168" s="17"/>
@@ -7729,19 +7791,19 @@
     </row>
     <row r="169" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="35" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B169" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C169" s="50" t="s">
-        <v>122</v>
+      <c r="C169" s="73" t="s">
+        <v>83</v>
       </c>
       <c r="D169" s="58">
-        <v>43378</v>
+        <v>43213</v>
       </c>
       <c r="E169" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F169" s="35" t="s">
         <v>12</v>
@@ -7760,14 +7822,28 @@
       <c r="P169" s="17"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="35"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="78"/>
+    <row r="170" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D170" s="58">
+        <v>43220</v>
+      </c>
+      <c r="E170" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="78" t="s">
+        <v>106</v>
+      </c>
       <c r="H170" s="86"/>
       <c r="I170" s="17"/>
       <c r="J170" s="17"/>
@@ -7781,19 +7857,19 @@
     </row>
     <row r="171" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B171" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C171" s="73" t="s">
-        <v>38</v>
+      <c r="C171" s="48" t="s">
+        <v>105</v>
       </c>
       <c r="D171" s="58">
-        <v>43189</v>
+        <v>43221</v>
       </c>
       <c r="E171" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F171" s="35" t="s">
         <v>12</v>
@@ -7814,19 +7890,19 @@
     </row>
     <row r="172" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B172" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C172" s="50" t="s">
+      <c r="C172" s="48" t="s">
         <v>103</v>
       </c>
       <c r="D172" s="58">
         <v>43249</v>
       </c>
       <c r="E172" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F172" s="35" t="s">
         <v>12</v>
@@ -7845,21 +7921,21 @@
       <c r="P172" s="17"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B173" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C173" s="50" t="s">
-        <v>122</v>
+      <c r="C173" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="D173" s="58">
-        <v>43376</v>
+        <v>43375</v>
       </c>
       <c r="E173" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F173" s="35" t="s">
         <v>12</v>
@@ -7878,14 +7954,28 @@
       <c r="P173" s="17"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="35"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="50"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="59"/>
-      <c r="G174" s="78"/>
+    <row r="174" spans="1:17" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B174" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D174" s="58">
+        <v>43391</v>
+      </c>
+      <c r="E174" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H174" s="86"/>
       <c r="I174" s="17"/>
       <c r="J174" s="17"/>
@@ -7897,28 +7987,14 @@
       <c r="P174" s="17"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B175" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D175" s="58">
-        <v>43235</v>
-      </c>
-      <c r="E175" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="175" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="35"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="78"/>
       <c r="H175" s="86"/>
       <c r="I175" s="17"/>
       <c r="J175" s="17"/>
@@ -7930,21 +8006,21 @@
       <c r="P175" s="17"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="35" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B176" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C176" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D176" s="58">
-        <v>43249</v>
+        <v>43235</v>
       </c>
       <c r="E176" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F176" s="35" t="s">
         <v>12</v>
@@ -7963,21 +8039,21 @@
       <c r="P176" s="17"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="35" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B177" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C177" s="50" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D177" s="58">
-        <v>43376</v>
+        <v>43242</v>
       </c>
       <c r="E177" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F177" s="35" t="s">
         <v>12</v>
@@ -7996,14 +8072,28 @@
       <c r="P177" s="17"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="35"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="59"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="78"/>
+    <row r="178" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A178" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D178" s="58">
+        <v>43243</v>
+      </c>
+      <c r="E178" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H178" s="86"/>
       <c r="I178" s="17"/>
       <c r="J178" s="17"/>
@@ -8015,21 +8105,21 @@
       <c r="P178" s="17"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="35" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B179" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="73" t="s">
-        <v>38</v>
+      <c r="C179" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="D179" s="58">
-        <v>43172</v>
+        <v>43249</v>
       </c>
       <c r="E179" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F179" s="35" t="s">
         <v>12</v>
@@ -8048,21 +8138,21 @@
       <c r="P179" s="17"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="35" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B180" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C180" s="50" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D180" s="58">
-        <v>43249</v>
+        <v>43377</v>
       </c>
       <c r="E180" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F180" s="35" t="s">
         <v>12</v>
@@ -8081,21 +8171,21 @@
       <c r="P180" s="17"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="35" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B181" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C181" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D181" s="58">
-        <v>43382</v>
+        <v>43392</v>
       </c>
       <c r="E181" s="59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F181" s="35" t="s">
         <v>12</v>
@@ -8120,7 +8210,7 @@
       <c r="C182" s="50"/>
       <c r="D182" s="58"/>
       <c r="E182" s="59"/>
-      <c r="F182" s="59"/>
+      <c r="F182" s="35"/>
       <c r="G182" s="78"/>
       <c r="H182" s="86"/>
       <c r="I182" s="17"/>
@@ -8135,16 +8225,16 @@
     </row>
     <row r="183" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B183" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C183" s="73" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D183" s="58">
-        <v>43227</v>
+        <v>43147</v>
       </c>
       <c r="E183" s="59" t="s">
         <v>16</v>
@@ -8168,7 +8258,7 @@
     </row>
     <row r="184" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B184" s="35" t="s">
         <v>17</v>
@@ -8201,13 +8291,13 @@
     </row>
     <row r="185" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B185" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C185" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D185" s="58">
         <v>43375</v>
@@ -8232,14 +8322,28 @@
       <c r="P185" s="17"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="35"/>
-      <c r="B186" s="35"/>
-      <c r="C186" s="50"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="59"/>
-      <c r="F186" s="59"/>
-      <c r="G186" s="78"/>
+    <row r="186" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D186" s="57">
+        <v>43390</v>
+      </c>
+      <c r="E186" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H186" s="86"/>
       <c r="I186" s="17"/>
       <c r="J186" s="17"/>
@@ -8252,27 +8356,13 @@
       <c r="Q186" s="17"/>
     </row>
     <row r="187" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B187" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C187" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D187" s="58">
-        <v>43227</v>
-      </c>
-      <c r="E187" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F187" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" s="78" t="s">
-        <v>115</v>
-      </c>
+      <c r="A187" s="35"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="59"/>
+      <c r="F187" s="59"/>
+      <c r="G187" s="78"/>
       <c r="H187" s="86"/>
       <c r="I187" s="17"/>
       <c r="J187" s="17"/>
@@ -8284,18 +8374,18 @@
       <c r="P187" s="17"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B188" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C188" s="73" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D188" s="58">
-        <v>43230</v>
+        <v>43171</v>
       </c>
       <c r="E188" s="59" t="s">
         <v>16</v>
@@ -8317,9 +8407,9 @@
       <c r="P188" s="17"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B189" s="35" t="s">
         <v>17</v>
@@ -8350,18 +8440,18 @@
       <c r="P189" s="17"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B190" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C190" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D190" s="58">
-        <v>43375</v>
+        <v>43378</v>
       </c>
       <c r="E190" s="59" t="s">
         <v>16</v>
@@ -8383,14 +8473,28 @@
       <c r="P190" s="17"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="35"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="50"/>
-      <c r="D191" s="58"/>
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="78"/>
+    <row r="191" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B191" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D191" s="57">
+        <v>43391</v>
+      </c>
+      <c r="E191" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H191" s="86"/>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -8402,28 +8506,14 @@
       <c r="P191" s="17"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B192" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C192" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D192" s="58">
-        <v>43250</v>
-      </c>
-      <c r="E192" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F192" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="192" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="35"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="59"/>
+      <c r="F192" s="59"/>
+      <c r="G192" s="78"/>
       <c r="H192" s="86"/>
       <c r="I192" s="17"/>
       <c r="J192" s="17"/>
@@ -8437,16 +8527,16 @@
     </row>
     <row r="193" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B193" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C193" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D193" s="58">
-        <v>43249</v>
+      <c r="C193" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D193" s="57">
+        <v>43189</v>
       </c>
       <c r="E193" s="59" t="s">
         <v>16</v>
@@ -8470,16 +8560,16 @@
     </row>
     <row r="194" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B194" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C194" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D194" s="58">
-        <v>43376</v>
+        <v>103</v>
+      </c>
+      <c r="D194" s="57">
+        <v>43249</v>
       </c>
       <c r="E194" s="59" t="s">
         <v>16</v>
@@ -8501,14 +8591,28 @@
       <c r="P194" s="17"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="35"/>
-      <c r="B195" s="35"/>
-      <c r="C195" s="50"/>
-      <c r="D195" s="58"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="78"/>
+    <row r="195" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B195" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D195" s="57">
+        <v>43376</v>
+      </c>
+      <c r="E195" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H195" s="86"/>
       <c r="I195" s="17"/>
       <c r="J195" s="17"/>
@@ -8520,18 +8624,18 @@
       <c r="P195" s="17"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="59" t="s">
-        <v>94</v>
+    <row r="196" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="B196" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C196" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D196" s="58">
-        <v>43249</v>
+        <v>124</v>
+      </c>
+      <c r="D196" s="57">
+        <v>43391</v>
       </c>
       <c r="E196" s="59" t="s">
         <v>16</v>
@@ -8543,80 +8647,80 @@
         <v>14</v>
       </c>
       <c r="H196" s="86"/>
-      <c r="I196" s="26"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="26"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
-      <c r="O196" s="19"/>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="19"/>
-    </row>
-    <row r="197" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B197" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C197" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D197" s="58">
-        <v>43377</v>
-      </c>
-      <c r="E197" s="59" t="s">
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="17"/>
+      <c r="L196" s="17"/>
+      <c r="M196" s="17"/>
+      <c r="N196" s="17"/>
+      <c r="O196" s="17"/>
+      <c r="P196" s="17"/>
+      <c r="Q196" s="17"/>
+    </row>
+    <row r="197" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="78"/>
+      <c r="H197" s="86"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="17"/>
+      <c r="M197" s="17"/>
+      <c r="N197" s="17"/>
+      <c r="O197" s="17"/>
+      <c r="P197" s="17"/>
+      <c r="Q197" s="17"/>
+    </row>
+    <row r="198" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B198" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D198" s="58">
+        <v>43235</v>
+      </c>
+      <c r="E198" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F197" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H197" s="86"/>
-      <c r="I197" s="26"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="26"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
-      <c r="N197" s="19"/>
-      <c r="O197" s="19"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="19"/>
-    </row>
-    <row r="198" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="59"/>
-      <c r="B198" s="35"/>
-      <c r="C198" s="50"/>
-      <c r="D198" s="60"/>
-      <c r="E198" s="61"/>
-      <c r="F198" s="61"/>
-      <c r="G198" s="78"/>
+      <c r="F198" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H198" s="86"/>
-      <c r="I198" s="26"/>
-      <c r="J198" s="26"/>
-      <c r="K198" s="26"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-      <c r="N198" s="19"/>
-      <c r="O198" s="19"/>
-      <c r="P198" s="19"/>
-      <c r="Q198" s="19"/>
-    </row>
-    <row r="199" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="59" t="s">
-        <v>96</v>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+      <c r="L198" s="17"/>
+      <c r="M198" s="17"/>
+      <c r="N198" s="17"/>
+      <c r="O198" s="17"/>
+      <c r="P198" s="17"/>
+      <c r="Q198" s="17"/>
+    </row>
+    <row r="199" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="B199" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C199" s="73" t="s">
-        <v>108</v>
+      <c r="C199" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="D199" s="58">
-        <v>43227</v>
+        <v>43249</v>
       </c>
       <c r="E199" s="59" t="s">
         <v>16</v>
@@ -8628,28 +8732,28 @@
         <v>14</v>
       </c>
       <c r="H199" s="86"/>
-      <c r="I199" s="26"/>
-      <c r="J199" s="26"/>
-      <c r="K199" s="26"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-      <c r="O199" s="19"/>
-      <c r="P199" s="19"/>
-      <c r="Q199" s="19"/>
-    </row>
-    <row r="200" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="59" t="s">
-        <v>96</v>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
+      <c r="N199" s="17"/>
+      <c r="O199" s="17"/>
+      <c r="P199" s="17"/>
+      <c r="Q199" s="17"/>
+    </row>
+    <row r="200" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="B200" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C200" s="73" t="s">
-        <v>99</v>
+      <c r="C200" s="50" t="s">
+        <v>121</v>
       </c>
       <c r="D200" s="58">
-        <v>43250</v>
+        <v>43376</v>
       </c>
       <c r="E200" s="59" t="s">
         <v>16</v>
@@ -8661,28 +8765,28 @@
         <v>14</v>
       </c>
       <c r="H200" s="86"/>
-      <c r="I200" s="26"/>
-      <c r="J200" s="26"/>
-      <c r="K200" s="26"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="19"/>
-      <c r="N200" s="19"/>
-      <c r="O200" s="19"/>
-      <c r="P200" s="19"/>
-      <c r="Q200" s="19"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+      <c r="M200" s="17"/>
+      <c r="N200" s="17"/>
+      <c r="O200" s="17"/>
+      <c r="P200" s="17"/>
+      <c r="Q200" s="17"/>
     </row>
     <row r="201" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="59" t="s">
-        <v>96</v>
+      <c r="A201" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="B201" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C201" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D201" s="58">
-        <v>43249</v>
+        <v>124</v>
+      </c>
+      <c r="D201" s="57">
+        <v>43392</v>
       </c>
       <c r="E201" s="59" t="s">
         <v>16</v>
@@ -8694,9 +8798,9 @@
         <v>14</v>
       </c>
       <c r="H201" s="86"/>
-      <c r="I201" s="26"/>
-      <c r="J201" s="26"/>
-      <c r="K201" s="26"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
       <c r="L201" s="17"/>
       <c r="M201" s="17"/>
       <c r="N201" s="17"/>
@@ -8704,32 +8808,18 @@
       <c r="P201" s="17"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="B202" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C202" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D202" s="58">
-        <v>43377</v>
-      </c>
-      <c r="E202" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F202" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202" s="78" t="s">
-        <v>14</v>
-      </c>
+    <row r="202" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="35"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="59"/>
+      <c r="F202" s="59"/>
+      <c r="G202" s="78"/>
       <c r="H202" s="86"/>
-      <c r="I202" s="26"/>
-      <c r="J202" s="26"/>
-      <c r="K202" s="26"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
       <c r="L202" s="17"/>
       <c r="M202" s="17"/>
       <c r="N202" s="17"/>
@@ -8737,18 +8827,32 @@
       <c r="P202" s="17"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="59"/>
-      <c r="B203" s="35"/>
-      <c r="C203" s="50"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="59"/>
-      <c r="F203" s="61"/>
-      <c r="G203" s="88"/>
+    <row r="203" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B203" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D203" s="57">
+        <v>43172</v>
+      </c>
+      <c r="E203" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H203" s="86"/>
-      <c r="I203" s="26"/>
-      <c r="J203" s="26"/>
-      <c r="K203" s="26"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
       <c r="L203" s="17"/>
       <c r="M203" s="17"/>
       <c r="N203" s="17"/>
@@ -8756,9 +8860,9 @@
       <c r="P203" s="17"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="59" t="s">
-        <v>107</v>
+    <row r="204" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="B204" s="35" t="s">
         <v>17</v>
@@ -8766,7 +8870,7 @@
       <c r="C204" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D204" s="58">
+      <c r="D204" s="57">
         <v>43249</v>
       </c>
       <c r="E204" s="59" t="s">
@@ -8779,9 +8883,9 @@
         <v>14</v>
       </c>
       <c r="H204" s="86"/>
-      <c r="I204" s="26"/>
-      <c r="J204" s="26"/>
-      <c r="K204" s="26"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
       <c r="L204" s="17"/>
       <c r="M204" s="17"/>
       <c r="N204" s="17"/>
@@ -8789,17 +8893,17 @@
       <c r="P204" s="17"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="59" t="s">
-        <v>107</v>
+    <row r="205" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="B205" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C205" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D205" s="58">
+        <v>121</v>
+      </c>
+      <c r="D205" s="57">
         <v>43382</v>
       </c>
       <c r="E205" s="59" t="s">
@@ -8812,9 +8916,9 @@
         <v>14</v>
       </c>
       <c r="H205" s="86"/>
-      <c r="I205" s="26"/>
-      <c r="J205" s="26"/>
-      <c r="K205" s="26"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
       <c r="L205" s="17"/>
       <c r="M205" s="17"/>
       <c r="N205" s="17"/>
@@ -8822,18 +8926,32 @@
       <c r="P205" s="17"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="59"/>
-      <c r="B206" s="35"/>
-      <c r="C206" s="50"/>
-      <c r="D206" s="60"/>
-      <c r="E206" s="61"/>
-      <c r="F206" s="61"/>
-      <c r="G206" s="78"/>
+    <row r="206" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B206" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D206" s="57">
+        <v>43392</v>
+      </c>
+      <c r="E206" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H206" s="86"/>
-      <c r="I206" s="26"/>
-      <c r="J206" s="26"/>
-      <c r="K206" s="26"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
       <c r="L206" s="17"/>
       <c r="M206" s="17"/>
       <c r="N206" s="17"/>
@@ -8845,14 +8963,14 @@
       <c r="A207" s="35"/>
       <c r="B207" s="35"/>
       <c r="C207" s="50"/>
-      <c r="D207" s="58"/>
+      <c r="D207" s="57"/>
       <c r="E207" s="59"/>
-      <c r="F207" s="61"/>
+      <c r="F207" s="59"/>
       <c r="G207" s="78"/>
       <c r="H207" s="86"/>
-      <c r="I207" s="26"/>
-      <c r="J207" s="26"/>
-      <c r="K207" s="26"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
       <c r="L207" s="17"/>
       <c r="M207" s="17"/>
       <c r="N207" s="17"/>
@@ -8860,14 +8978,28 @@
       <c r="P207" s="17"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="62"/>
-      <c r="B208" s="35"/>
-      <c r="C208" s="50"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="59"/>
-      <c r="F208" s="59"/>
-      <c r="G208" s="78"/>
+    <row r="208" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B208" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D208" s="57">
+        <v>43227</v>
+      </c>
+      <c r="E208" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H208" s="86"/>
       <c r="I208" s="17"/>
       <c r="J208" s="17"/>
@@ -8879,14 +9011,28 @@
       <c r="P208" s="17"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="59"/>
-      <c r="B209" s="59"/>
-      <c r="C209" s="50"/>
-      <c r="D209" s="58"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="59"/>
-      <c r="G209" s="78"/>
+    <row r="209" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B209" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D209" s="57">
+        <v>43249</v>
+      </c>
+      <c r="E209" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H209" s="86"/>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
@@ -8898,14 +9044,28 @@
       <c r="P209" s="17"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="59"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="50"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="78"/>
+    <row r="210" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B210" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D210" s="57">
+        <v>43375</v>
+      </c>
+      <c r="E210" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H210" s="86"/>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
@@ -8917,14 +9077,28 @@
       <c r="P210" s="17"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="59"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="50"/>
-      <c r="D211" s="58"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="78"/>
+    <row r="211" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B211" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D211" s="57">
+        <v>43392</v>
+      </c>
+      <c r="E211" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H211" s="86"/>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
@@ -8937,10 +9111,10 @@
       <c r="Q211" s="17"/>
     </row>
     <row r="212" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="59"/>
-      <c r="B212" s="59"/>
-      <c r="C212" s="50"/>
-      <c r="D212" s="58"/>
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="51"/>
+      <c r="D212" s="57"/>
       <c r="E212" s="59"/>
       <c r="F212" s="59"/>
       <c r="G212" s="78"/>
@@ -8956,13 +9130,27 @@
       <c r="Q212" s="17"/>
     </row>
     <row r="213" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="59"/>
-      <c r="B213" s="59"/>
-      <c r="C213" s="50"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="59"/>
-      <c r="F213" s="59"/>
-      <c r="G213" s="79"/>
+      <c r="A213" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B213" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D213" s="57">
+        <v>43227</v>
+      </c>
+      <c r="E213" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="78" t="s">
+        <v>115</v>
+      </c>
       <c r="H213" s="86"/>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
@@ -8975,13 +9163,27 @@
       <c r="Q213" s="17"/>
     </row>
     <row r="214" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="59"/>
-      <c r="B214" s="59"/>
-      <c r="C214" s="50"/>
-      <c r="D214" s="58"/>
-      <c r="E214" s="59"/>
-      <c r="F214" s="59"/>
-      <c r="G214" s="79"/>
+      <c r="A214" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B214" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C214" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D214" s="57">
+        <v>43230</v>
+      </c>
+      <c r="E214" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H214" s="86"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
@@ -8994,13 +9196,27 @@
       <c r="Q214" s="17"/>
     </row>
     <row r="215" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="59"/>
-      <c r="B215" s="59"/>
-      <c r="C215" s="50"/>
-      <c r="D215" s="58"/>
-      <c r="E215" s="59"/>
-      <c r="F215" s="59"/>
-      <c r="G215" s="79"/>
+      <c r="A215" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B215" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D215" s="57">
+        <v>43249</v>
+      </c>
+      <c r="E215" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H215" s="86"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
@@ -9013,13 +9229,27 @@
       <c r="Q215" s="17"/>
     </row>
     <row r="216" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="59"/>
-      <c r="B216" s="59"/>
-      <c r="C216" s="50"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="59"/>
-      <c r="F216" s="59"/>
-      <c r="G216" s="79"/>
+      <c r="A216" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B216" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C216" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D216" s="57">
+        <v>43375</v>
+      </c>
+      <c r="E216" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H216" s="86"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
@@ -9031,33 +9261,47 @@
       <c r="P216" s="17"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="35"/>
-      <c r="B217" s="35"/>
-      <c r="C217" s="51"/>
-      <c r="D217" s="51"/>
-      <c r="E217" s="35"/>
-      <c r="F217" s="35"/>
-      <c r="G217" s="78"/>
+    <row r="217" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B217" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C217" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D217" s="57">
+        <v>43391</v>
+      </c>
+      <c r="E217" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H217" s="86"/>
-      <c r="I217" s="21"/>
-      <c r="J217" s="21"/>
-      <c r="K217" s="21"/>
-      <c r="L217" s="21"/>
-      <c r="M217" s="21"/>
-      <c r="N217" s="21"/>
-      <c r="O217" s="21"/>
-      <c r="P217" s="21"/>
-      <c r="Q217" s="21"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="17"/>
+      <c r="M217" s="17"/>
+      <c r="N217" s="17"/>
+      <c r="O217" s="17"/>
+      <c r="P217" s="17"/>
+      <c r="Q217" s="17"/>
     </row>
     <row r="218" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="59"/>
-      <c r="B218" s="59"/>
+      <c r="A218" s="35"/>
+      <c r="B218" s="35"/>
       <c r="C218" s="50"/>
       <c r="D218" s="58"/>
       <c r="E218" s="59"/>
       <c r="F218" s="59"/>
-      <c r="G218" s="79"/>
+      <c r="G218" s="78"/>
       <c r="H218" s="86"/>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
@@ -9069,14 +9313,28 @@
       <c r="P218" s="17"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="59"/>
-      <c r="B219" s="59"/>
-      <c r="C219" s="50"/>
-      <c r="D219" s="58"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="59"/>
-      <c r="G219" s="79"/>
+    <row r="219" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B219" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C219" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D219" s="58">
+        <v>43250</v>
+      </c>
+      <c r="E219" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H219" s="86"/>
       <c r="I219" s="17"/>
       <c r="J219" s="17"/>
@@ -9088,14 +9346,28 @@
       <c r="P219" s="17"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="59"/>
-      <c r="B220" s="59"/>
-      <c r="C220" s="50"/>
-      <c r="D220" s="58"/>
-      <c r="E220" s="59"/>
-      <c r="F220" s="59"/>
-      <c r="G220" s="79"/>
+    <row r="220" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B220" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D220" s="58">
+        <v>43249</v>
+      </c>
+      <c r="E220" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H220" s="86"/>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
@@ -9107,14 +9379,28 @@
       <c r="P220" s="17"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="59"/>
-      <c r="B221" s="59"/>
-      <c r="C221" s="50"/>
-      <c r="D221" s="58"/>
-      <c r="E221" s="59"/>
-      <c r="F221" s="59"/>
-      <c r="G221" s="79"/>
+    <row r="221" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B221" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D221" s="58">
+        <v>43376</v>
+      </c>
+      <c r="E221" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H221" s="86"/>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
@@ -9126,14 +9412,28 @@
       <c r="P221" s="17"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="59"/>
-      <c r="B222" s="59"/>
-      <c r="C222" s="50"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="59"/>
-      <c r="F222" s="59"/>
-      <c r="G222" s="79"/>
+    <row r="222" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B222" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C222" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D222" s="57">
+        <v>1021</v>
+      </c>
+      <c r="E222" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H222" s="86"/>
       <c r="I222" s="17"/>
       <c r="J222" s="17"/>
@@ -9146,13 +9446,13 @@
       <c r="Q222" s="17"/>
     </row>
     <row r="223" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="59"/>
-      <c r="B223" s="59"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="50"/>
-      <c r="D223" s="58"/>
+      <c r="D223" s="57"/>
       <c r="E223" s="59"/>
       <c r="F223" s="59"/>
-      <c r="G223" s="79"/>
+      <c r="G223" s="78"/>
       <c r="H223" s="86"/>
       <c r="I223" s="17"/>
       <c r="J223" s="17"/>
@@ -9164,132 +9464,216 @@
       <c r="P223" s="17"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="63"/>
-      <c r="B224" s="59"/>
-      <c r="C224" s="52"/>
-      <c r="D224" s="58"/>
-      <c r="E224" s="59"/>
-      <c r="F224" s="59"/>
-      <c r="G224" s="79"/>
+    <row r="224" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B224" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C224" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D224" s="57">
+        <v>43249</v>
+      </c>
+      <c r="E224" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H224" s="86"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="17"/>
-      <c r="K224" s="17"/>
-      <c r="L224" s="17"/>
-      <c r="M224" s="17"/>
-      <c r="N224" s="17"/>
-      <c r="O224" s="17"/>
-      <c r="P224" s="17"/>
-      <c r="Q224" s="17"/>
-    </row>
-    <row r="225" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="63"/>
-      <c r="B225" s="59"/>
-      <c r="C225" s="52"/>
-      <c r="D225" s="58"/>
-      <c r="E225" s="59"/>
-      <c r="F225" s="59"/>
-      <c r="G225" s="79"/>
+      <c r="I224" s="26"/>
+      <c r="J224" s="26"/>
+      <c r="K224" s="26"/>
+      <c r="L224" s="19"/>
+      <c r="M224" s="19"/>
+      <c r="N224" s="19"/>
+      <c r="O224" s="19"/>
+      <c r="P224" s="19"/>
+      <c r="Q224" s="19"/>
+    </row>
+    <row r="225" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B225" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C225" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D225" s="57">
+        <v>43377</v>
+      </c>
+      <c r="E225" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H225" s="86"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="17"/>
-      <c r="K225" s="17"/>
-      <c r="L225" s="17"/>
-      <c r="M225" s="17"/>
-      <c r="N225" s="17"/>
-      <c r="O225" s="17"/>
-      <c r="P225" s="17"/>
-      <c r="Q225" s="17"/>
-    </row>
-    <row r="226" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="63"/>
-      <c r="B226" s="59"/>
-      <c r="C226" s="50"/>
-      <c r="D226" s="58"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
-      <c r="G226" s="79"/>
+      <c r="I225" s="26"/>
+      <c r="J225" s="26"/>
+      <c r="K225" s="26"/>
+      <c r="L225" s="19"/>
+      <c r="M225" s="19"/>
+      <c r="N225" s="19"/>
+      <c r="O225" s="19"/>
+      <c r="P225" s="19"/>
+      <c r="Q225" s="19"/>
+    </row>
+    <row r="226" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B226" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D226" s="57">
+        <v>43390</v>
+      </c>
+      <c r="E226" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H226" s="86"/>
-      <c r="I226" s="17"/>
-      <c r="J226" s="17"/>
-      <c r="K226" s="17"/>
-      <c r="L226" s="17"/>
-      <c r="M226" s="17"/>
-      <c r="N226" s="17"/>
-      <c r="O226" s="17"/>
-      <c r="P226" s="17"/>
-      <c r="Q226" s="17"/>
-    </row>
-    <row r="227" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="63"/>
-      <c r="B227" s="59"/>
+      <c r="I226" s="26"/>
+      <c r="J226" s="26"/>
+      <c r="K226" s="26"/>
+      <c r="L226" s="19"/>
+      <c r="M226" s="19"/>
+      <c r="N226" s="19"/>
+      <c r="O226" s="19"/>
+      <c r="P226" s="19"/>
+      <c r="Q226" s="19"/>
+    </row>
+    <row r="227" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="59"/>
+      <c r="B227" s="35"/>
       <c r="C227" s="50"/>
-      <c r="D227" s="58"/>
-      <c r="E227" s="59"/>
-      <c r="F227" s="59"/>
-      <c r="G227" s="79"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="61"/>
+      <c r="F227" s="61"/>
+      <c r="G227" s="78"/>
       <c r="H227" s="86"/>
-      <c r="I227" s="17"/>
-      <c r="J227" s="17"/>
-      <c r="K227" s="17"/>
-      <c r="L227" s="17"/>
-      <c r="M227" s="17"/>
-      <c r="N227" s="17"/>
-      <c r="O227" s="17"/>
-      <c r="P227" s="17"/>
-      <c r="Q227" s="17"/>
-    </row>
-    <row r="228" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="59"/>
-      <c r="B228" s="59"/>
-      <c r="C228" s="50"/>
-      <c r="D228" s="58"/>
-      <c r="E228" s="59"/>
-      <c r="F228" s="59"/>
-      <c r="G228" s="79"/>
+      <c r="I227" s="26"/>
+      <c r="J227" s="26"/>
+      <c r="K227" s="26"/>
+      <c r="L227" s="19"/>
+      <c r="M227" s="19"/>
+      <c r="N227" s="19"/>
+      <c r="O227" s="19"/>
+      <c r="P227" s="19"/>
+      <c r="Q227" s="19"/>
+    </row>
+    <row r="228" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B228" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C228" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D228" s="58">
+        <v>43227</v>
+      </c>
+      <c r="E228" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H228" s="86"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="17"/>
-      <c r="K228" s="17"/>
-      <c r="L228" s="17"/>
-      <c r="M228" s="17"/>
-      <c r="N228" s="17"/>
-      <c r="O228" s="17"/>
-      <c r="P228" s="17"/>
-      <c r="Q228" s="17"/>
-    </row>
-    <row r="229" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="59"/>
-      <c r="B229" s="59"/>
-      <c r="C229" s="50"/>
-      <c r="D229" s="58"/>
-      <c r="E229" s="59"/>
-      <c r="F229" s="59"/>
-      <c r="G229" s="79"/>
+      <c r="I228" s="26"/>
+      <c r="J228" s="26"/>
+      <c r="K228" s="26"/>
+      <c r="L228" s="19"/>
+      <c r="M228" s="19"/>
+      <c r="N228" s="19"/>
+      <c r="O228" s="19"/>
+      <c r="P228" s="19"/>
+      <c r="Q228" s="19"/>
+    </row>
+    <row r="229" spans="1:17" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B229" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D229" s="58">
+        <v>43250</v>
+      </c>
+      <c r="E229" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H229" s="86"/>
-      <c r="I229" s="17"/>
-      <c r="J229" s="17"/>
-      <c r="K229" s="17"/>
-      <c r="L229" s="17"/>
-      <c r="M229" s="17"/>
-      <c r="N229" s="17"/>
-      <c r="O229" s="17"/>
-      <c r="P229" s="17"/>
-      <c r="Q229" s="17"/>
-    </row>
-    <row r="230" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="59"/>
-      <c r="B230" s="59"/>
-      <c r="C230" s="50"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="59"/>
-      <c r="F230" s="59"/>
-      <c r="G230" s="79"/>
+      <c r="I229" s="26"/>
+      <c r="J229" s="26"/>
+      <c r="K229" s="26"/>
+      <c r="L229" s="19"/>
+      <c r="M229" s="19"/>
+      <c r="N229" s="19"/>
+      <c r="O229" s="19"/>
+      <c r="P229" s="19"/>
+      <c r="Q229" s="19"/>
+    </row>
+    <row r="230" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B230" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D230" s="58">
+        <v>43249</v>
+      </c>
+      <c r="E230" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G230" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H230" s="86"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="17"/>
-      <c r="K230" s="17"/>
+      <c r="I230" s="26"/>
+      <c r="J230" s="26"/>
+      <c r="K230" s="26"/>
       <c r="L230" s="17"/>
       <c r="M230" s="17"/>
       <c r="N230" s="17"/>
@@ -9297,18 +9681,32 @@
       <c r="P230" s="17"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="59"/>
-      <c r="B231" s="59"/>
-      <c r="C231" s="50"/>
-      <c r="D231" s="58"/>
-      <c r="E231" s="59"/>
-      <c r="F231" s="59"/>
-      <c r="G231" s="79"/>
+    <row r="231" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B231" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D231" s="58">
+        <v>43377</v>
+      </c>
+      <c r="E231" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H231" s="86"/>
-      <c r="I231" s="17"/>
-      <c r="J231" s="17"/>
-      <c r="K231" s="17"/>
+      <c r="I231" s="26"/>
+      <c r="J231" s="26"/>
+      <c r="K231" s="26"/>
       <c r="L231" s="17"/>
       <c r="M231" s="17"/>
       <c r="N231" s="17"/>
@@ -9316,18 +9714,32 @@
       <c r="P231" s="17"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="59"/>
-      <c r="B232" s="59"/>
-      <c r="C232" s="50"/>
-      <c r="D232" s="64"/>
-      <c r="E232" s="59"/>
-      <c r="F232" s="59"/>
-      <c r="G232" s="79"/>
+    <row r="232" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B232" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D232" s="57">
+        <v>43390</v>
+      </c>
+      <c r="E232" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H232" s="86"/>
-      <c r="I232" s="17"/>
-      <c r="J232" s="17"/>
-      <c r="K232" s="17"/>
+      <c r="I232" s="26"/>
+      <c r="J232" s="26"/>
+      <c r="K232" s="26"/>
       <c r="L232" s="17"/>
       <c r="M232" s="17"/>
       <c r="N232" s="17"/>
@@ -9337,16 +9749,16 @@
     </row>
     <row r="233" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="59"/>
-      <c r="B233" s="59"/>
+      <c r="B233" s="35"/>
       <c r="C233" s="50"/>
-      <c r="D233" s="64"/>
+      <c r="D233" s="58"/>
       <c r="E233" s="59"/>
-      <c r="F233" s="59"/>
-      <c r="G233" s="79"/>
+      <c r="F233" s="61"/>
+      <c r="G233" s="88"/>
       <c r="H233" s="86"/>
-      <c r="I233" s="17"/>
-      <c r="J233" s="17"/>
-      <c r="K233" s="17"/>
+      <c r="I233" s="26"/>
+      <c r="J233" s="26"/>
+      <c r="K233" s="26"/>
       <c r="L233" s="17"/>
       <c r="M233" s="17"/>
       <c r="N233" s="17"/>
@@ -9355,17 +9767,31 @@
       <c r="Q233" s="17"/>
     </row>
     <row r="234" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="59"/>
-      <c r="B234" s="59"/>
-      <c r="C234" s="50"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="59"/>
-      <c r="F234" s="59"/>
-      <c r="G234" s="79"/>
+      <c r="A234" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B234" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C234" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D234" s="58">
+        <v>43249</v>
+      </c>
+      <c r="E234" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G234" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H234" s="86"/>
-      <c r="I234" s="17"/>
-      <c r="J234" s="17"/>
-      <c r="K234" s="17"/>
+      <c r="I234" s="26"/>
+      <c r="J234" s="26"/>
+      <c r="K234" s="26"/>
       <c r="L234" s="17"/>
       <c r="M234" s="17"/>
       <c r="N234" s="17"/>
@@ -9374,17 +9800,31 @@
       <c r="Q234" s="17"/>
     </row>
     <row r="235" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="59"/>
-      <c r="B235" s="59"/>
-      <c r="C235" s="50"/>
-      <c r="D235" s="64"/>
-      <c r="E235" s="59"/>
-      <c r="F235" s="59"/>
-      <c r="G235" s="79"/>
+      <c r="A235" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B235" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D235" s="58">
+        <v>43382</v>
+      </c>
+      <c r="E235" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G235" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H235" s="86"/>
-      <c r="I235" s="17"/>
-      <c r="J235" s="17"/>
-      <c r="K235" s="17"/>
+      <c r="I235" s="26"/>
+      <c r="J235" s="26"/>
+      <c r="K235" s="26"/>
       <c r="L235" s="17"/>
       <c r="M235" s="17"/>
       <c r="N235" s="17"/>
@@ -9393,17 +9833,31 @@
       <c r="Q235" s="17"/>
     </row>
     <row r="236" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="59"/>
-      <c r="B236" s="59"/>
-      <c r="C236" s="50"/>
-      <c r="D236" s="64"/>
-      <c r="E236" s="59"/>
-      <c r="F236" s="59"/>
-      <c r="G236" s="79"/>
+      <c r="A236" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B236" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D236" s="57">
+        <v>43392</v>
+      </c>
+      <c r="E236" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H236" s="86"/>
-      <c r="I236" s="17"/>
-      <c r="J236" s="17"/>
-      <c r="K236" s="17"/>
+      <c r="I236" s="26"/>
+      <c r="J236" s="26"/>
+      <c r="K236" s="26"/>
       <c r="L236" s="17"/>
       <c r="M236" s="17"/>
       <c r="N236" s="17"/>
@@ -9412,17 +9866,17 @@
       <c r="Q236" s="17"/>
     </row>
     <row r="237" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="59"/>
-      <c r="B237" s="59"/>
+      <c r="A237" s="35"/>
+      <c r="B237" s="35"/>
       <c r="C237" s="50"/>
-      <c r="D237" s="64"/>
+      <c r="D237" s="58"/>
       <c r="E237" s="59"/>
-      <c r="F237" s="59"/>
-      <c r="G237" s="79"/>
+      <c r="F237" s="61"/>
+      <c r="G237" s="78"/>
       <c r="H237" s="86"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="17"/>
-      <c r="K237" s="17"/>
+      <c r="I237" s="26"/>
+      <c r="J237" s="26"/>
+      <c r="K237" s="26"/>
       <c r="L237" s="17"/>
       <c r="M237" s="17"/>
       <c r="N237" s="17"/>
@@ -9430,14 +9884,28 @@
       <c r="P237" s="17"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="59"/>
-      <c r="B238" s="59"/>
-      <c r="C238" s="50"/>
-      <c r="D238" s="64"/>
-      <c r="E238" s="59"/>
-      <c r="F238" s="59"/>
-      <c r="G238" s="79"/>
+    <row r="238" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B238" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D238" s="57">
+        <v>43392</v>
+      </c>
+      <c r="E238" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G238" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H238" s="86"/>
       <c r="I238" s="17"/>
       <c r="J238" s="17"/>
@@ -9453,10 +9921,10 @@
       <c r="A239" s="59"/>
       <c r="B239" s="59"/>
       <c r="C239" s="50"/>
-      <c r="D239" s="64"/>
+      <c r="D239" s="58"/>
       <c r="E239" s="59"/>
       <c r="F239" s="59"/>
-      <c r="G239" s="79"/>
+      <c r="G239" s="78"/>
       <c r="H239" s="86"/>
       <c r="I239" s="17"/>
       <c r="J239" s="17"/>
@@ -9468,14 +9936,28 @@
       <c r="P239" s="17"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="59"/>
-      <c r="B240" s="59"/>
-      <c r="C240" s="50"/>
-      <c r="D240" s="64"/>
-      <c r="E240" s="59"/>
-      <c r="F240" s="59"/>
-      <c r="G240" s="79"/>
+    <row r="240" spans="1:17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B240" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D240" s="57">
+        <v>43395</v>
+      </c>
+      <c r="E240" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="H240" s="86"/>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
@@ -9491,10 +9973,10 @@
       <c r="A241" s="59"/>
       <c r="B241" s="59"/>
       <c r="C241" s="50"/>
-      <c r="D241" s="64"/>
+      <c r="D241" s="58"/>
       <c r="E241" s="59"/>
       <c r="F241" s="59"/>
-      <c r="G241" s="79"/>
+      <c r="G241" s="78"/>
       <c r="H241" s="86"/>
       <c r="I241" s="17"/>
       <c r="J241" s="17"/>
@@ -9510,10 +9992,10 @@
       <c r="A242" s="59"/>
       <c r="B242" s="59"/>
       <c r="C242" s="50"/>
-      <c r="D242" s="64"/>
+      <c r="D242" s="58"/>
       <c r="E242" s="59"/>
       <c r="F242" s="59"/>
-      <c r="G242" s="79"/>
+      <c r="G242" s="78"/>
       <c r="H242" s="86"/>
       <c r="I242" s="17"/>
       <c r="J242" s="17"/>
@@ -9529,7 +10011,7 @@
       <c r="A243" s="59"/>
       <c r="B243" s="59"/>
       <c r="C243" s="50"/>
-      <c r="D243" s="64"/>
+      <c r="D243" s="58"/>
       <c r="E243" s="59"/>
       <c r="F243" s="59"/>
       <c r="G243" s="79"/>
@@ -9548,7 +10030,7 @@
       <c r="A244" s="59"/>
       <c r="B244" s="59"/>
       <c r="C244" s="50"/>
-      <c r="D244" s="64"/>
+      <c r="D244" s="58"/>
       <c r="E244" s="59"/>
       <c r="F244" s="59"/>
       <c r="G244" s="79"/>
@@ -9567,7 +10049,7 @@
       <c r="A245" s="59"/>
       <c r="B245" s="59"/>
       <c r="C245" s="50"/>
-      <c r="D245" s="64"/>
+      <c r="D245" s="58"/>
       <c r="E245" s="59"/>
       <c r="F245" s="59"/>
       <c r="G245" s="79"/>
@@ -9586,7 +10068,7 @@
       <c r="A246" s="59"/>
       <c r="B246" s="59"/>
       <c r="C246" s="50"/>
-      <c r="D246" s="64"/>
+      <c r="D246" s="58"/>
       <c r="E246" s="59"/>
       <c r="F246" s="59"/>
       <c r="G246" s="79"/>
@@ -9601,30 +10083,30 @@
       <c r="P246" s="17"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="59"/>
-      <c r="B247" s="59"/>
-      <c r="C247" s="50"/>
-      <c r="D247" s="64"/>
-      <c r="E247" s="59"/>
-      <c r="F247" s="59"/>
-      <c r="G247" s="79"/>
+    <row r="247" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="35"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="51"/>
+      <c r="D247" s="51"/>
+      <c r="E247" s="35"/>
+      <c r="F247" s="35"/>
+      <c r="G247" s="78"/>
       <c r="H247" s="86"/>
-      <c r="I247" s="17"/>
-      <c r="J247" s="17"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="17"/>
-      <c r="M247" s="17"/>
-      <c r="N247" s="17"/>
-      <c r="O247" s="17"/>
-      <c r="P247" s="17"/>
-      <c r="Q247" s="17"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="21"/>
+      <c r="K247" s="21"/>
+      <c r="L247" s="21"/>
+      <c r="M247" s="21"/>
+      <c r="N247" s="21"/>
+      <c r="O247" s="21"/>
+      <c r="P247" s="21"/>
+      <c r="Q247" s="21"/>
     </row>
     <row r="248" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="59"/>
       <c r="B248" s="59"/>
       <c r="C248" s="50"/>
-      <c r="D248" s="64"/>
+      <c r="D248" s="58"/>
       <c r="E248" s="59"/>
       <c r="F248" s="59"/>
       <c r="G248" s="79"/>
@@ -9640,13 +10122,13 @@
       <c r="Q248" s="17"/>
     </row>
     <row r="249" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="50"/>
-      <c r="B249" s="50"/>
+      <c r="A249" s="59"/>
+      <c r="B249" s="59"/>
       <c r="C249" s="50"/>
       <c r="D249" s="58"/>
-      <c r="E249" s="50"/>
-      <c r="F249" s="50"/>
-      <c r="G249" s="81"/>
+      <c r="E249" s="59"/>
+      <c r="F249" s="59"/>
+      <c r="G249" s="79"/>
       <c r="H249" s="86"/>
       <c r="I249" s="17"/>
       <c r="J249" s="17"/>
@@ -9659,13 +10141,13 @@
       <c r="Q249" s="17"/>
     </row>
     <row r="250" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="50"/>
-      <c r="B250" s="50"/>
+      <c r="A250" s="59"/>
+      <c r="B250" s="59"/>
       <c r="C250" s="50"/>
       <c r="D250" s="58"/>
-      <c r="E250" s="50"/>
-      <c r="F250" s="50"/>
-      <c r="G250" s="81"/>
+      <c r="E250" s="59"/>
+      <c r="F250" s="59"/>
+      <c r="G250" s="79"/>
       <c r="H250" s="86"/>
       <c r="I250" s="17"/>
       <c r="J250" s="17"/>
@@ -9678,13 +10160,13 @@
       <c r="Q250" s="17"/>
     </row>
     <row r="251" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="50"/>
-      <c r="B251" s="50"/>
+      <c r="A251" s="59"/>
+      <c r="B251" s="59"/>
       <c r="C251" s="50"/>
       <c r="D251" s="58"/>
-      <c r="E251" s="50"/>
-      <c r="F251" s="50"/>
-      <c r="G251" s="81"/>
+      <c r="E251" s="59"/>
+      <c r="F251" s="59"/>
+      <c r="G251" s="79"/>
       <c r="H251" s="86"/>
       <c r="I251" s="17"/>
       <c r="J251" s="17"/>
@@ -9697,13 +10179,13 @@
       <c r="Q251" s="17"/>
     </row>
     <row r="252" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="50"/>
-      <c r="B252" s="50"/>
+      <c r="A252" s="59"/>
+      <c r="B252" s="59"/>
       <c r="C252" s="50"/>
       <c r="D252" s="58"/>
-      <c r="E252" s="50"/>
-      <c r="F252" s="50"/>
-      <c r="G252" s="81"/>
+      <c r="E252" s="59"/>
+      <c r="F252" s="59"/>
+      <c r="G252" s="79"/>
       <c r="H252" s="86"/>
       <c r="I252" s="17"/>
       <c r="J252" s="17"/>
@@ -9716,13 +10198,13 @@
       <c r="Q252" s="17"/>
     </row>
     <row r="253" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="50"/>
-      <c r="B253" s="50"/>
+      <c r="A253" s="59"/>
+      <c r="B253" s="59"/>
       <c r="C253" s="50"/>
       <c r="D253" s="58"/>
-      <c r="E253" s="50"/>
-      <c r="F253" s="50"/>
-      <c r="G253" s="81"/>
+      <c r="E253" s="59"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="79"/>
       <c r="H253" s="86"/>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
@@ -9735,13 +10217,13 @@
       <c r="Q253" s="17"/>
     </row>
     <row r="254" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="50"/>
-      <c r="B254" s="50"/>
-      <c r="C254" s="50"/>
+      <c r="A254" s="63"/>
+      <c r="B254" s="59"/>
+      <c r="C254" s="52"/>
       <c r="D254" s="58"/>
-      <c r="E254" s="50"/>
-      <c r="F254" s="50"/>
-      <c r="G254" s="81"/>
+      <c r="E254" s="59"/>
+      <c r="F254" s="59"/>
+      <c r="G254" s="79"/>
       <c r="H254" s="86"/>
       <c r="I254" s="17"/>
       <c r="J254" s="17"/>
@@ -9754,13 +10236,13 @@
       <c r="Q254" s="17"/>
     </row>
     <row r="255" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="50"/>
-      <c r="B255" s="50"/>
-      <c r="C255" s="50"/>
+      <c r="A255" s="63"/>
+      <c r="B255" s="59"/>
+      <c r="C255" s="52"/>
       <c r="D255" s="58"/>
-      <c r="E255" s="50"/>
-      <c r="F255" s="50"/>
-      <c r="G255" s="81"/>
+      <c r="E255" s="59"/>
+      <c r="F255" s="59"/>
+      <c r="G255" s="79"/>
       <c r="H255" s="86"/>
       <c r="I255" s="17"/>
       <c r="J255" s="17"/>
@@ -9773,13 +10255,13 @@
       <c r="Q255" s="17"/>
     </row>
     <row r="256" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="50"/>
-      <c r="B256" s="50"/>
+      <c r="A256" s="63"/>
+      <c r="B256" s="59"/>
       <c r="C256" s="50"/>
       <c r="D256" s="58"/>
-      <c r="E256" s="50"/>
-      <c r="F256" s="50"/>
-      <c r="G256" s="81"/>
+      <c r="E256" s="59"/>
+      <c r="F256" s="59"/>
+      <c r="G256" s="79"/>
       <c r="H256" s="86"/>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
@@ -9792,13 +10274,13 @@
       <c r="Q256" s="17"/>
     </row>
     <row r="257" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="50"/>
-      <c r="B257" s="50"/>
+      <c r="A257" s="63"/>
+      <c r="B257" s="59"/>
       <c r="C257" s="50"/>
       <c r="D257" s="58"/>
-      <c r="E257" s="50"/>
-      <c r="F257" s="50"/>
-      <c r="G257" s="81"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="79"/>
       <c r="H257" s="86"/>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
@@ -9811,13 +10293,13 @@
       <c r="Q257" s="17"/>
     </row>
     <row r="258" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="50"/>
-      <c r="B258" s="50"/>
+      <c r="A258" s="59"/>
+      <c r="B258" s="59"/>
       <c r="C258" s="50"/>
       <c r="D258" s="58"/>
-      <c r="E258" s="50"/>
-      <c r="F258" s="50"/>
-      <c r="G258" s="81"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="79"/>
       <c r="H258" s="86"/>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
@@ -9830,13 +10312,13 @@
       <c r="Q258" s="17"/>
     </row>
     <row r="259" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="50"/>
-      <c r="B259" s="50"/>
+      <c r="A259" s="59"/>
+      <c r="B259" s="59"/>
       <c r="C259" s="50"/>
       <c r="D259" s="58"/>
-      <c r="E259" s="50"/>
-      <c r="F259" s="50"/>
-      <c r="G259" s="81"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="79"/>
       <c r="H259" s="86"/>
       <c r="I259" s="17"/>
       <c r="J259" s="17"/>
@@ -9849,13 +10331,13 @@
       <c r="Q259" s="17"/>
     </row>
     <row r="260" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="50"/>
-      <c r="B260" s="50"/>
+      <c r="A260" s="59"/>
+      <c r="B260" s="59"/>
       <c r="C260" s="50"/>
       <c r="D260" s="58"/>
-      <c r="E260" s="50"/>
-      <c r="F260" s="50"/>
-      <c r="G260" s="81"/>
+      <c r="E260" s="59"/>
+      <c r="F260" s="59"/>
+      <c r="G260" s="79"/>
       <c r="H260" s="86"/>
       <c r="I260" s="17"/>
       <c r="J260" s="17"/>
@@ -9868,13 +10350,13 @@
       <c r="Q260" s="17"/>
     </row>
     <row r="261" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="50"/>
-      <c r="B261" s="50"/>
+      <c r="A261" s="59"/>
+      <c r="B261" s="59"/>
       <c r="C261" s="50"/>
       <c r="D261" s="58"/>
-      <c r="E261" s="50"/>
-      <c r="F261" s="50"/>
-      <c r="G261" s="81"/>
+      <c r="E261" s="59"/>
+      <c r="F261" s="59"/>
+      <c r="G261" s="79"/>
       <c r="H261" s="86"/>
       <c r="I261" s="17"/>
       <c r="J261" s="17"/>
@@ -9887,13 +10369,13 @@
       <c r="Q261" s="17"/>
     </row>
     <row r="262" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="50"/>
-      <c r="B262" s="50"/>
-      <c r="C262" s="53"/>
-      <c r="D262" s="58"/>
-      <c r="E262" s="50"/>
-      <c r="F262" s="50"/>
-      <c r="G262" s="81"/>
+      <c r="A262" s="59"/>
+      <c r="B262" s="59"/>
+      <c r="C262" s="50"/>
+      <c r="D262" s="64"/>
+      <c r="E262" s="59"/>
+      <c r="F262" s="59"/>
+      <c r="G262" s="79"/>
       <c r="H262" s="86"/>
       <c r="I262" s="17"/>
       <c r="J262" s="17"/>
@@ -9906,13 +10388,13 @@
       <c r="Q262" s="17"/>
     </row>
     <row r="263" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="50"/>
-      <c r="B263" s="50"/>
-      <c r="C263" s="53"/>
-      <c r="D263" s="58"/>
-      <c r="E263" s="50"/>
-      <c r="F263" s="50"/>
-      <c r="G263" s="81"/>
+      <c r="A263" s="59"/>
+      <c r="B263" s="59"/>
+      <c r="C263" s="50"/>
+      <c r="D263" s="64"/>
+      <c r="E263" s="59"/>
+      <c r="F263" s="59"/>
+      <c r="G263" s="79"/>
       <c r="H263" s="86"/>
       <c r="I263" s="17"/>
       <c r="J263" s="17"/>
@@ -9925,13 +10407,13 @@
       <c r="Q263" s="17"/>
     </row>
     <row r="264" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="50"/>
-      <c r="B264" s="50"/>
-      <c r="C264" s="51"/>
-      <c r="D264" s="58"/>
-      <c r="E264" s="50"/>
-      <c r="F264" s="50"/>
-      <c r="G264" s="81"/>
+      <c r="A264" s="59"/>
+      <c r="B264" s="59"/>
+      <c r="C264" s="50"/>
+      <c r="D264" s="64"/>
+      <c r="E264" s="59"/>
+      <c r="F264" s="59"/>
+      <c r="G264" s="79"/>
       <c r="H264" s="86"/>
       <c r="I264" s="17"/>
       <c r="J264" s="17"/>
@@ -9944,13 +10426,13 @@
       <c r="Q264" s="17"/>
     </row>
     <row r="265" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="50"/>
-      <c r="B265" s="50"/>
-      <c r="C265" s="52"/>
-      <c r="D265" s="58"/>
-      <c r="E265" s="50"/>
-      <c r="F265" s="50"/>
-      <c r="G265" s="81"/>
+      <c r="A265" s="59"/>
+      <c r="B265" s="59"/>
+      <c r="C265" s="50"/>
+      <c r="D265" s="64"/>
+      <c r="E265" s="59"/>
+      <c r="F265" s="59"/>
+      <c r="G265" s="79"/>
       <c r="H265" s="86"/>
       <c r="I265" s="17"/>
       <c r="J265" s="17"/>
@@ -9963,13 +10445,13 @@
       <c r="Q265" s="17"/>
     </row>
     <row r="266" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="65"/>
-      <c r="B266" s="50"/>
+      <c r="A266" s="59"/>
+      <c r="B266" s="59"/>
       <c r="C266" s="50"/>
-      <c r="D266" s="58"/>
-      <c r="E266" s="50"/>
-      <c r="F266" s="50"/>
-      <c r="G266" s="81"/>
+      <c r="D266" s="64"/>
+      <c r="E266" s="59"/>
+      <c r="F266" s="59"/>
+      <c r="G266" s="79"/>
       <c r="H266" s="86"/>
       <c r="I266" s="17"/>
       <c r="J266" s="17"/>
@@ -9982,13 +10464,13 @@
       <c r="Q266" s="17"/>
     </row>
     <row r="267" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="50"/>
-      <c r="B267" s="50"/>
-      <c r="C267" s="52"/>
-      <c r="D267" s="58"/>
-      <c r="E267" s="50"/>
-      <c r="F267" s="50"/>
-      <c r="G267" s="81"/>
+      <c r="A267" s="59"/>
+      <c r="B267" s="59"/>
+      <c r="C267" s="50"/>
+      <c r="D267" s="64"/>
+      <c r="E267" s="59"/>
+      <c r="F267" s="59"/>
+      <c r="G267" s="79"/>
       <c r="H267" s="86"/>
       <c r="I267" s="17"/>
       <c r="J267" s="17"/>
@@ -10001,13 +10483,13 @@
       <c r="Q267" s="17"/>
     </row>
     <row r="268" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="50"/>
-      <c r="B268" s="50"/>
-      <c r="C268" s="52"/>
-      <c r="D268" s="58"/>
-      <c r="E268" s="50"/>
-      <c r="F268" s="50"/>
-      <c r="G268" s="81"/>
+      <c r="A268" s="59"/>
+      <c r="B268" s="59"/>
+      <c r="C268" s="50"/>
+      <c r="D268" s="64"/>
+      <c r="E268" s="59"/>
+      <c r="F268" s="59"/>
+      <c r="G268" s="79"/>
       <c r="H268" s="86"/>
       <c r="I268" s="17"/>
       <c r="J268" s="17"/>
@@ -10020,13 +10502,13 @@
       <c r="Q268" s="17"/>
     </row>
     <row r="269" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="65"/>
-      <c r="B269" s="50"/>
-      <c r="C269" s="52"/>
-      <c r="D269" s="58"/>
-      <c r="E269" s="50"/>
-      <c r="F269" s="50"/>
-      <c r="G269" s="81"/>
+      <c r="A269" s="59"/>
+      <c r="B269" s="59"/>
+      <c r="C269" s="50"/>
+      <c r="D269" s="64"/>
+      <c r="E269" s="59"/>
+      <c r="F269" s="59"/>
+      <c r="G269" s="79"/>
       <c r="H269" s="86"/>
       <c r="I269" s="17"/>
       <c r="J269" s="17"/>
@@ -10039,13 +10521,13 @@
       <c r="Q269" s="17"/>
     </row>
     <row r="270" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="65"/>
-      <c r="B270" s="50"/>
+      <c r="A270" s="59"/>
+      <c r="B270" s="59"/>
       <c r="C270" s="50"/>
-      <c r="D270" s="58"/>
-      <c r="E270" s="50"/>
-      <c r="F270" s="50"/>
-      <c r="G270" s="81"/>
+      <c r="D270" s="64"/>
+      <c r="E270" s="59"/>
+      <c r="F270" s="59"/>
+      <c r="G270" s="79"/>
       <c r="H270" s="86"/>
       <c r="I270" s="17"/>
       <c r="J270" s="17"/>
@@ -10058,13 +10540,13 @@
       <c r="Q270" s="17"/>
     </row>
     <row r="271" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="65"/>
-      <c r="B271" s="50"/>
+      <c r="A271" s="59"/>
+      <c r="B271" s="59"/>
       <c r="C271" s="50"/>
-      <c r="D271" s="58"/>
-      <c r="E271" s="50"/>
-      <c r="F271" s="50"/>
-      <c r="G271" s="81"/>
+      <c r="D271" s="64"/>
+      <c r="E271" s="59"/>
+      <c r="F271" s="59"/>
+      <c r="G271" s="79"/>
       <c r="H271" s="86"/>
       <c r="I271" s="17"/>
       <c r="J271" s="17"/>
@@ -10077,13 +10559,13 @@
       <c r="Q271" s="17"/>
     </row>
     <row r="272" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="50"/>
-      <c r="B272" s="50"/>
+      <c r="A272" s="59"/>
+      <c r="B272" s="59"/>
       <c r="C272" s="50"/>
-      <c r="D272" s="58"/>
-      <c r="E272" s="50"/>
-      <c r="F272" s="50"/>
-      <c r="G272" s="81"/>
+      <c r="D272" s="64"/>
+      <c r="E272" s="59"/>
+      <c r="F272" s="59"/>
+      <c r="G272" s="79"/>
       <c r="H272" s="86"/>
       <c r="I272" s="17"/>
       <c r="J272" s="17"/>
@@ -10096,13 +10578,13 @@
       <c r="Q272" s="17"/>
     </row>
     <row r="273" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="50"/>
-      <c r="B273" s="50"/>
+      <c r="A273" s="59"/>
+      <c r="B273" s="59"/>
       <c r="C273" s="50"/>
-      <c r="D273" s="58"/>
-      <c r="E273" s="50"/>
-      <c r="F273" s="50"/>
-      <c r="G273" s="81"/>
+      <c r="D273" s="64"/>
+      <c r="E273" s="59"/>
+      <c r="F273" s="59"/>
+      <c r="G273" s="79"/>
       <c r="H273" s="86"/>
       <c r="I273" s="17"/>
       <c r="J273" s="17"/>
@@ -10115,13 +10597,13 @@
       <c r="Q273" s="17"/>
     </row>
     <row r="274" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="50"/>
-      <c r="B274" s="50"/>
+      <c r="A274" s="59"/>
+      <c r="B274" s="59"/>
       <c r="C274" s="50"/>
-      <c r="D274" s="58"/>
-      <c r="E274" s="50"/>
-      <c r="F274" s="50"/>
-      <c r="G274" s="81"/>
+      <c r="D274" s="64"/>
+      <c r="E274" s="59"/>
+      <c r="F274" s="59"/>
+      <c r="G274" s="79"/>
       <c r="H274" s="86"/>
       <c r="I274" s="17"/>
       <c r="J274" s="17"/>
@@ -10134,13 +10616,13 @@
       <c r="Q274" s="17"/>
     </row>
     <row r="275" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="50"/>
-      <c r="B275" s="50"/>
+      <c r="A275" s="59"/>
+      <c r="B275" s="59"/>
       <c r="C275" s="50"/>
-      <c r="D275" s="58"/>
-      <c r="E275" s="50"/>
-      <c r="F275" s="50"/>
-      <c r="G275" s="81"/>
+      <c r="D275" s="64"/>
+      <c r="E275" s="59"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="79"/>
       <c r="H275" s="86"/>
       <c r="I275" s="17"/>
       <c r="J275" s="17"/>
@@ -10153,13 +10635,13 @@
       <c r="Q275" s="17"/>
     </row>
     <row r="276" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="50"/>
-      <c r="B276" s="50"/>
+      <c r="A276" s="59"/>
+      <c r="B276" s="59"/>
       <c r="C276" s="50"/>
-      <c r="D276" s="58"/>
-      <c r="E276" s="50"/>
-      <c r="F276" s="50"/>
-      <c r="G276" s="81"/>
+      <c r="D276" s="64"/>
+      <c r="E276" s="59"/>
+      <c r="F276" s="59"/>
+      <c r="G276" s="79"/>
       <c r="H276" s="86"/>
       <c r="I276" s="17"/>
       <c r="J276" s="17"/>
@@ -10172,13 +10654,13 @@
       <c r="Q276" s="17"/>
     </row>
     <row r="277" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="50"/>
-      <c r="B277" s="50"/>
+      <c r="A277" s="59"/>
+      <c r="B277" s="59"/>
       <c r="C277" s="50"/>
-      <c r="D277" s="58"/>
-      <c r="E277" s="50"/>
-      <c r="F277" s="50"/>
-      <c r="G277" s="81"/>
+      <c r="D277" s="64"/>
+      <c r="E277" s="59"/>
+      <c r="F277" s="59"/>
+      <c r="G277" s="79"/>
       <c r="H277" s="86"/>
       <c r="I277" s="17"/>
       <c r="J277" s="17"/>
@@ -10191,13 +10673,13 @@
       <c r="Q277" s="17"/>
     </row>
     <row r="278" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="65"/>
-      <c r="B278" s="50"/>
-      <c r="C278" s="52"/>
-      <c r="D278" s="58"/>
-      <c r="E278" s="50"/>
-      <c r="F278" s="50"/>
-      <c r="G278" s="81"/>
+      <c r="A278" s="59"/>
+      <c r="B278" s="59"/>
+      <c r="C278" s="50"/>
+      <c r="D278" s="64"/>
+      <c r="E278" s="59"/>
+      <c r="F278" s="59"/>
+      <c r="G278" s="79"/>
       <c r="H278" s="86"/>
       <c r="I278" s="17"/>
       <c r="J278" s="17"/>
@@ -10210,9 +10692,9 @@
       <c r="Q278" s="17"/>
     </row>
     <row r="279" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="65"/>
+      <c r="A279" s="50"/>
       <c r="B279" s="50"/>
-      <c r="C279" s="52"/>
+      <c r="C279" s="50"/>
       <c r="D279" s="58"/>
       <c r="E279" s="50"/>
       <c r="F279" s="50"/>
@@ -10229,9 +10711,9 @@
       <c r="Q279" s="17"/>
     </row>
     <row r="280" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="65"/>
+      <c r="A280" s="50"/>
       <c r="B280" s="50"/>
-      <c r="C280" s="52"/>
+      <c r="C280" s="50"/>
       <c r="D280" s="58"/>
       <c r="E280" s="50"/>
       <c r="F280" s="50"/>
@@ -10248,7 +10730,7 @@
       <c r="Q280" s="17"/>
     </row>
     <row r="281" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="65"/>
+      <c r="A281" s="50"/>
       <c r="B281" s="50"/>
       <c r="C281" s="50"/>
       <c r="D281" s="58"/>
@@ -10267,7 +10749,7 @@
       <c r="Q281" s="17"/>
     </row>
     <row r="282" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="65"/>
+      <c r="A282" s="50"/>
       <c r="B282" s="50"/>
       <c r="C282" s="50"/>
       <c r="D282" s="58"/>
@@ -10399,11 +10881,11 @@
       <c r="P288" s="17"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="65"/>
+    <row r="289" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="50"/>
       <c r="B289" s="50"/>
-      <c r="C289" s="52"/>
-      <c r="D289" s="57"/>
+      <c r="C289" s="50"/>
+      <c r="D289" s="58"/>
       <c r="E289" s="50"/>
       <c r="F289" s="50"/>
       <c r="G289" s="81"/>
@@ -10418,11 +10900,11 @@
       <c r="P289" s="17"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="65"/>
+    <row r="290" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="50"/>
       <c r="B290" s="50"/>
-      <c r="C290" s="52"/>
-      <c r="D290" s="57"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="58"/>
       <c r="E290" s="50"/>
       <c r="F290" s="50"/>
       <c r="G290" s="81"/>
@@ -10437,11 +10919,11 @@
       <c r="P290" s="17"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="65"/>
+    <row r="291" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="50"/>
       <c r="B291" s="50"/>
-      <c r="C291" s="52"/>
-      <c r="D291" s="57"/>
+      <c r="C291" s="50"/>
+      <c r="D291" s="58"/>
       <c r="E291" s="50"/>
       <c r="F291" s="50"/>
       <c r="G291" s="81"/>
@@ -10456,11 +10938,11 @@
       <c r="P291" s="17"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="65"/>
+    <row r="292" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="50"/>
       <c r="B292" s="50"/>
-      <c r="C292" s="52"/>
-      <c r="D292" s="57"/>
+      <c r="C292" s="53"/>
+      <c r="D292" s="58"/>
       <c r="E292" s="50"/>
       <c r="F292" s="50"/>
       <c r="G292" s="81"/>
@@ -10475,11 +10957,11 @@
       <c r="P292" s="17"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="65"/>
+    <row r="293" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="50"/>
       <c r="B293" s="50"/>
-      <c r="C293" s="52"/>
-      <c r="D293" s="57"/>
+      <c r="C293" s="53"/>
+      <c r="D293" s="58"/>
       <c r="E293" s="50"/>
       <c r="F293" s="50"/>
       <c r="G293" s="81"/>
@@ -10494,11 +10976,11 @@
       <c r="P293" s="17"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="65"/>
+    <row r="294" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="50"/>
       <c r="B294" s="50"/>
-      <c r="C294" s="52"/>
-      <c r="D294" s="57"/>
+      <c r="C294" s="51"/>
+      <c r="D294" s="58"/>
       <c r="E294" s="50"/>
       <c r="F294" s="50"/>
       <c r="G294" s="81"/>
@@ -10513,11 +10995,11 @@
       <c r="P294" s="17"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="65"/>
+    <row r="295" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="50"/>
       <c r="B295" s="50"/>
       <c r="C295" s="52"/>
-      <c r="D295" s="57"/>
+      <c r="D295" s="58"/>
       <c r="E295" s="50"/>
       <c r="F295" s="50"/>
       <c r="G295" s="81"/>
@@ -10532,14 +11014,14 @@
       <c r="P295" s="17"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="66"/>
-      <c r="B296" s="67"/>
-      <c r="C296" s="54"/>
-      <c r="D296" s="68"/>
-      <c r="E296" s="67"/>
-      <c r="F296" s="67"/>
-      <c r="G296" s="82"/>
+    <row r="296" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="65"/>
+      <c r="B296" s="50"/>
+      <c r="C296" s="50"/>
+      <c r="D296" s="58"/>
+      <c r="E296" s="50"/>
+      <c r="F296" s="50"/>
+      <c r="G296" s="81"/>
       <c r="H296" s="86"/>
       <c r="I296" s="17"/>
       <c r="J296" s="17"/>
@@ -10551,205 +11033,109 @@
       <c r="P296" s="17"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="51"/>
-      <c r="B297" s="51"/>
-      <c r="C297" s="51"/>
-      <c r="D297" s="57"/>
-      <c r="E297" s="51"/>
-      <c r="F297" s="51"/>
-      <c r="G297" s="83"/>
-      <c r="H297" s="87"/>
-      <c r="I297" s="31"/>
-      <c r="J297" s="31"/>
-      <c r="K297" s="31"/>
-      <c r="L297" s="31"/>
-      <c r="M297" s="31"/>
-      <c r="N297" s="31"/>
-      <c r="O297" s="32"/>
-      <c r="P297" s="15"/>
-      <c r="Q297" s="15"/>
-    </row>
-    <row r="298" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="50"/>
+      <c r="B297" s="50"/>
+      <c r="C297" s="52"/>
+      <c r="D297" s="58"/>
+      <c r="E297" s="50"/>
+      <c r="F297" s="50"/>
+      <c r="G297" s="81"/>
+      <c r="H297" s="86"/>
+      <c r="I297" s="17"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="17"/>
+    </row>
+    <row r="298" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="50"/>
       <c r="B298" s="50"/>
-      <c r="C298" s="50"/>
+      <c r="C298" s="52"/>
       <c r="D298" s="58"/>
       <c r="E298" s="50"/>
       <c r="F298" s="50"/>
-      <c r="G298" s="82"/>
-      <c r="H298" s="87"/>
-      <c r="I298" s="25"/>
-      <c r="J298" s="25"/>
-      <c r="K298" s="25"/>
-      <c r="L298" s="25"/>
-      <c r="M298" s="25"/>
-      <c r="N298" s="25"/>
-      <c r="O298" s="23"/>
-      <c r="P298" s="14"/>
-      <c r="Q298" s="14"/>
-      <c r="AA298" s="28"/>
-      <c r="AB298" s="24"/>
-      <c r="AC298" s="24"/>
-      <c r="AD298" s="24"/>
-      <c r="AE298" s="24"/>
-      <c r="AF298" s="24"/>
-      <c r="AG298" s="24"/>
-      <c r="AH298" s="24"/>
-      <c r="AI298" s="24"/>
-      <c r="AJ298" s="24"/>
-      <c r="AK298" s="24"/>
-      <c r="AL298" s="24"/>
-      <c r="AM298" s="24"/>
-      <c r="AN298" s="24"/>
-      <c r="AO298" s="24"/>
-      <c r="AP298" s="24"/>
-      <c r="AQ298" s="24"/>
-      <c r="AR298" s="24"/>
-      <c r="AS298" s="24"/>
-      <c r="AT298" s="24"/>
-      <c r="AU298" s="24"/>
-      <c r="AV298" s="24"/>
-      <c r="AW298" s="24"/>
-      <c r="AX298" s="24"/>
-    </row>
-    <row r="299" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="50"/>
+      <c r="G298" s="81"/>
+      <c r="H298" s="86"/>
+      <c r="I298" s="17"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="17"/>
+    </row>
+    <row r="299" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="65"/>
       <c r="B299" s="50"/>
-      <c r="C299" s="50"/>
+      <c r="C299" s="52"/>
       <c r="D299" s="58"/>
       <c r="E299" s="50"/>
       <c r="F299" s="50"/>
       <c r="G299" s="81"/>
-      <c r="H299" s="87"/>
-      <c r="I299" s="25"/>
-      <c r="J299" s="25"/>
-      <c r="K299" s="25"/>
-      <c r="L299" s="25"/>
-      <c r="M299" s="25"/>
-      <c r="N299" s="25"/>
-      <c r="O299" s="23"/>
-      <c r="P299" s="14"/>
-      <c r="Q299" s="14"/>
-      <c r="AA299" s="28"/>
-      <c r="AB299" s="24"/>
-      <c r="AC299" s="24"/>
-      <c r="AD299" s="24"/>
-      <c r="AE299" s="24"/>
-      <c r="AF299" s="24"/>
-      <c r="AG299" s="24"/>
-      <c r="AH299" s="24"/>
-      <c r="AI299" s="24"/>
-      <c r="AJ299" s="24"/>
-      <c r="AK299" s="24"/>
-      <c r="AL299" s="24"/>
-      <c r="AM299" s="24"/>
-      <c r="AN299" s="24"/>
-      <c r="AO299" s="24"/>
-      <c r="AP299" s="24"/>
-      <c r="AQ299" s="24"/>
-      <c r="AR299" s="24"/>
-      <c r="AS299" s="24"/>
-      <c r="AT299" s="24"/>
-      <c r="AU299" s="24"/>
-      <c r="AV299" s="24"/>
-      <c r="AW299" s="24"/>
-      <c r="AX299" s="24"/>
-    </row>
-    <row r="300" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="50"/>
+      <c r="H299" s="86"/>
+      <c r="I299" s="17"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="17"/>
+      <c r="N299" s="17"/>
+      <c r="O299" s="17"/>
+      <c r="P299" s="17"/>
+      <c r="Q299" s="17"/>
+    </row>
+    <row r="300" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="65"/>
       <c r="B300" s="50"/>
       <c r="C300" s="50"/>
       <c r="D300" s="58"/>
       <c r="E300" s="50"/>
       <c r="F300" s="50"/>
-      <c r="G300" s="82"/>
-      <c r="H300" s="87"/>
-      <c r="I300" s="25"/>
-      <c r="J300" s="25"/>
-      <c r="K300" s="25"/>
-      <c r="L300" s="25"/>
-      <c r="M300" s="25"/>
-      <c r="N300" s="25"/>
-      <c r="O300" s="23"/>
-      <c r="P300" s="14"/>
-      <c r="Q300" s="14"/>
-      <c r="AA300" s="28"/>
-      <c r="AB300" s="24"/>
-      <c r="AC300" s="24"/>
-      <c r="AD300" s="24"/>
-      <c r="AE300" s="24"/>
-      <c r="AF300" s="24"/>
-      <c r="AG300" s="24"/>
-      <c r="AH300" s="24"/>
-      <c r="AI300" s="24"/>
-      <c r="AJ300" s="24"/>
-      <c r="AK300" s="24"/>
-      <c r="AL300" s="24"/>
-      <c r="AM300" s="24"/>
-      <c r="AN300" s="24"/>
-      <c r="AO300" s="24"/>
-      <c r="AP300" s="24"/>
-      <c r="AQ300" s="24"/>
-      <c r="AR300" s="24"/>
-      <c r="AS300" s="24"/>
-      <c r="AT300" s="24"/>
-      <c r="AU300" s="24"/>
-      <c r="AV300" s="24"/>
-      <c r="AW300" s="24"/>
-      <c r="AX300" s="24"/>
-    </row>
-    <row r="301" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="50"/>
+      <c r="G300" s="81"/>
+      <c r="H300" s="86"/>
+      <c r="I300" s="17"/>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+      <c r="M300" s="17"/>
+      <c r="N300" s="17"/>
+      <c r="O300" s="17"/>
+      <c r="P300" s="17"/>
+      <c r="Q300" s="17"/>
+    </row>
+    <row r="301" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="65"/>
       <c r="B301" s="50"/>
       <c r="C301" s="50"/>
       <c r="D301" s="58"/>
       <c r="E301" s="50"/>
       <c r="F301" s="50"/>
       <c r="G301" s="81"/>
-      <c r="H301" s="87"/>
-      <c r="I301" s="25"/>
-      <c r="J301" s="25"/>
-      <c r="K301" s="25"/>
-      <c r="L301" s="25"/>
-      <c r="M301" s="25"/>
-      <c r="N301" s="25"/>
-      <c r="O301" s="23"/>
-      <c r="P301" s="14"/>
-      <c r="Q301" s="14"/>
-      <c r="AA301" s="28"/>
-      <c r="AB301" s="24"/>
-      <c r="AC301" s="24"/>
-      <c r="AD301" s="24"/>
-      <c r="AE301" s="24"/>
-      <c r="AF301" s="24"/>
-      <c r="AG301" s="24"/>
-      <c r="AH301" s="24"/>
-      <c r="AI301" s="24"/>
-      <c r="AJ301" s="24"/>
-      <c r="AK301" s="24"/>
-      <c r="AL301" s="24"/>
-      <c r="AM301" s="24"/>
-      <c r="AN301" s="24"/>
-      <c r="AO301" s="24"/>
-      <c r="AP301" s="24"/>
-      <c r="AQ301" s="24"/>
-      <c r="AR301" s="24"/>
-      <c r="AS301" s="24"/>
-      <c r="AT301" s="24"/>
-      <c r="AU301" s="24"/>
-      <c r="AV301" s="24"/>
-      <c r="AW301" s="24"/>
-      <c r="AX301" s="24"/>
-    </row>
-    <row r="302" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="69"/>
-      <c r="B302" s="70"/>
-      <c r="C302" s="55"/>
-      <c r="D302" s="71"/>
-      <c r="E302" s="70"/>
-      <c r="F302" s="70"/>
-      <c r="G302" s="84"/>
+      <c r="H301" s="86"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="17"/>
+      <c r="Q301" s="17"/>
+    </row>
+    <row r="302" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="50"/>
+      <c r="B302" s="50"/>
+      <c r="C302" s="50"/>
+      <c r="D302" s="58"/>
+      <c r="E302" s="50"/>
+      <c r="F302" s="50"/>
+      <c r="G302" s="81"/>
       <c r="H302" s="86"/>
       <c r="I302" s="17"/>
       <c r="J302" s="17"/>
@@ -10760,35 +11146,12 @@
       <c r="O302" s="17"/>
       <c r="P302" s="17"/>
       <c r="Q302" s="17"/>
-      <c r="AB302" s="26"/>
-      <c r="AC302" s="26"/>
-      <c r="AD302" s="26"/>
-      <c r="AE302" s="26"/>
-      <c r="AF302" s="26"/>
-      <c r="AG302" s="26"/>
-      <c r="AH302" s="26"/>
-      <c r="AI302" s="26"/>
-      <c r="AJ302" s="26"/>
-      <c r="AK302" s="26"/>
-      <c r="AL302" s="26"/>
-      <c r="AM302" s="26"/>
-      <c r="AN302" s="26"/>
-      <c r="AO302" s="26"/>
-      <c r="AP302" s="26"/>
-      <c r="AQ302" s="26"/>
-      <c r="AR302" s="26"/>
-      <c r="AS302" s="26"/>
-      <c r="AT302" s="26"/>
-      <c r="AU302" s="26"/>
-      <c r="AV302" s="26"/>
-      <c r="AW302" s="26"/>
-      <c r="AX302" s="26"/>
-    </row>
-    <row r="303" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="65"/>
+    </row>
+    <row r="303" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="50"/>
       <c r="B303" s="50"/>
-      <c r="C303" s="52"/>
-      <c r="D303" s="57"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="58"/>
       <c r="E303" s="50"/>
       <c r="F303" s="50"/>
       <c r="G303" s="81"/>
@@ -10802,35 +11165,12 @@
       <c r="O303" s="17"/>
       <c r="P303" s="17"/>
       <c r="Q303" s="17"/>
-      <c r="AB303" s="26"/>
-      <c r="AC303" s="26"/>
-      <c r="AD303" s="26"/>
-      <c r="AE303" s="26"/>
-      <c r="AF303" s="26"/>
-      <c r="AG303" s="26"/>
-      <c r="AH303" s="26"/>
-      <c r="AI303" s="26"/>
-      <c r="AJ303" s="26"/>
-      <c r="AK303" s="26"/>
-      <c r="AL303" s="26"/>
-      <c r="AM303" s="26"/>
-      <c r="AN303" s="26"/>
-      <c r="AO303" s="26"/>
-      <c r="AP303" s="26"/>
-      <c r="AQ303" s="26"/>
-      <c r="AR303" s="26"/>
-      <c r="AS303" s="26"/>
-      <c r="AT303" s="26"/>
-      <c r="AU303" s="26"/>
-      <c r="AV303" s="26"/>
-      <c r="AW303" s="26"/>
-      <c r="AX303" s="26"/>
-    </row>
-    <row r="304" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="65"/>
+    </row>
+    <row r="304" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="50"/>
       <c r="B304" s="50"/>
-      <c r="C304" s="52"/>
-      <c r="D304" s="71"/>
+      <c r="C304" s="50"/>
+      <c r="D304" s="58"/>
       <c r="E304" s="50"/>
       <c r="F304" s="50"/>
       <c r="G304" s="81"/>
@@ -10844,38 +11184,15 @@
       <c r="O304" s="17"/>
       <c r="P304" s="17"/>
       <c r="Q304" s="17"/>
-      <c r="AB304" s="26"/>
-      <c r="AC304" s="26"/>
-      <c r="AD304" s="26"/>
-      <c r="AE304" s="26"/>
-      <c r="AF304" s="26"/>
-      <c r="AG304" s="26"/>
-      <c r="AH304" s="26"/>
-      <c r="AI304" s="26"/>
-      <c r="AJ304" s="26"/>
-      <c r="AK304" s="26"/>
-      <c r="AL304" s="26"/>
-      <c r="AM304" s="26"/>
-      <c r="AN304" s="26"/>
-      <c r="AO304" s="26"/>
-      <c r="AP304" s="26"/>
-      <c r="AQ304" s="26"/>
-      <c r="AR304" s="26"/>
-      <c r="AS304" s="26"/>
-      <c r="AT304" s="26"/>
-      <c r="AU304" s="26"/>
-      <c r="AV304" s="26"/>
-      <c r="AW304" s="26"/>
-      <c r="AX304" s="26"/>
-    </row>
-    <row r="305" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="66"/>
-      <c r="B305" s="67"/>
-      <c r="C305" s="54"/>
-      <c r="D305" s="68"/>
-      <c r="E305" s="67"/>
-      <c r="F305" s="67"/>
-      <c r="G305" s="82"/>
+    </row>
+    <row r="305" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="50"/>
+      <c r="B305" s="50"/>
+      <c r="C305" s="50"/>
+      <c r="D305" s="58"/>
+      <c r="E305" s="50"/>
+      <c r="F305" s="50"/>
+      <c r="G305" s="81"/>
       <c r="H305" s="86"/>
       <c r="I305" s="17"/>
       <c r="J305" s="17"/>
@@ -10886,92 +11203,27 @@
       <c r="O305" s="17"/>
       <c r="P305" s="17"/>
       <c r="Q305" s="17"/>
-      <c r="R305" s="26"/>
-      <c r="S305" s="26"/>
-      <c r="T305" s="26"/>
-      <c r="U305" s="26"/>
-      <c r="V305" s="26"/>
-      <c r="W305" s="26"/>
-      <c r="X305" s="26"/>
-      <c r="Y305" s="26"/>
-      <c r="Z305" s="26"/>
-      <c r="AB305" s="26"/>
-      <c r="AC305" s="26"/>
-      <c r="AD305" s="26"/>
-      <c r="AE305" s="26"/>
-      <c r="AF305" s="26"/>
-      <c r="AG305" s="26"/>
-      <c r="AH305" s="26"/>
-      <c r="AI305" s="26"/>
-      <c r="AJ305" s="26"/>
-      <c r="AK305" s="26"/>
-      <c r="AL305" s="26"/>
-      <c r="AM305" s="26"/>
-      <c r="AN305" s="26"/>
-      <c r="AO305" s="26"/>
-      <c r="AP305" s="26"/>
-      <c r="AQ305" s="26"/>
-      <c r="AR305" s="26"/>
-      <c r="AS305" s="26"/>
-      <c r="AT305" s="26"/>
-      <c r="AU305" s="26"/>
-      <c r="AV305" s="26"/>
-      <c r="AW305" s="26"/>
-      <c r="AX305" s="26"/>
-    </row>
-    <row r="306" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="50"/>
       <c r="B306" s="50"/>
       <c r="C306" s="50"/>
       <c r="D306" s="58"/>
       <c r="E306" s="50"/>
       <c r="F306" s="50"/>
-      <c r="G306" s="82"/>
-      <c r="H306" s="87"/>
-      <c r="I306" s="25"/>
-      <c r="J306" s="25"/>
-      <c r="K306" s="25"/>
-      <c r="L306" s="25"/>
-      <c r="M306" s="25"/>
-      <c r="N306" s="25"/>
-      <c r="O306" s="25"/>
-      <c r="P306" s="25"/>
-      <c r="Q306" s="25"/>
-      <c r="R306" s="29"/>
-      <c r="S306" s="29"/>
-      <c r="T306" s="29"/>
-      <c r="U306" s="29"/>
-      <c r="V306" s="29"/>
-      <c r="W306" s="29"/>
-      <c r="X306" s="29"/>
-      <c r="Y306" s="29"/>
-      <c r="Z306" s="29"/>
-      <c r="AA306" s="30"/>
-      <c r="AB306" s="29"/>
-      <c r="AC306" s="29"/>
-      <c r="AD306" s="29"/>
-      <c r="AE306" s="29"/>
-      <c r="AF306" s="29"/>
-      <c r="AG306" s="29"/>
-      <c r="AH306" s="29"/>
-      <c r="AI306" s="29"/>
-      <c r="AJ306" s="29"/>
-      <c r="AK306" s="29"/>
-      <c r="AL306" s="29"/>
-      <c r="AM306" s="29"/>
-      <c r="AN306" s="29"/>
-      <c r="AO306" s="29"/>
-      <c r="AP306" s="29"/>
-      <c r="AQ306" s="29"/>
-      <c r="AR306" s="29"/>
-      <c r="AS306" s="29"/>
-      <c r="AT306" s="29"/>
-      <c r="AU306" s="29"/>
-      <c r="AV306" s="29"/>
-      <c r="AW306" s="29"/>
-      <c r="AX306" s="29"/>
-    </row>
-    <row r="307" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G306" s="81"/>
+      <c r="H306" s="86"/>
+      <c r="I306" s="17"/>
+      <c r="J306" s="17"/>
+      <c r="K306" s="17"/>
+      <c r="L306" s="17"/>
+      <c r="M306" s="17"/>
+      <c r="N306" s="17"/>
+      <c r="O306" s="17"/>
+      <c r="P306" s="17"/>
+      <c r="Q306" s="17"/>
+    </row>
+    <row r="307" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="50"/>
       <c r="B307" s="50"/>
       <c r="C307" s="50"/>
@@ -10979,57 +11231,24 @@
       <c r="E307" s="50"/>
       <c r="F307" s="50"/>
       <c r="G307" s="81"/>
-      <c r="H307" s="87"/>
-      <c r="I307" s="25"/>
-      <c r="J307" s="25"/>
-      <c r="K307" s="25"/>
-      <c r="L307" s="25"/>
-      <c r="M307" s="25"/>
-      <c r="N307" s="25"/>
-      <c r="O307" s="25"/>
-      <c r="P307" s="25"/>
-      <c r="Q307" s="25"/>
-      <c r="R307" s="29"/>
-      <c r="S307" s="29"/>
-      <c r="T307" s="29"/>
-      <c r="U307" s="29"/>
-      <c r="V307" s="29"/>
-      <c r="W307" s="29"/>
-      <c r="X307" s="29"/>
-      <c r="Y307" s="29"/>
-      <c r="Z307" s="29"/>
-      <c r="AA307" s="30"/>
-      <c r="AB307" s="29"/>
-      <c r="AC307" s="29"/>
-      <c r="AD307" s="29"/>
-      <c r="AE307" s="29"/>
-      <c r="AF307" s="29"/>
-      <c r="AG307" s="29"/>
-      <c r="AH307" s="29"/>
-      <c r="AI307" s="29"/>
-      <c r="AJ307" s="29"/>
-      <c r="AK307" s="29"/>
-      <c r="AL307" s="29"/>
-      <c r="AM307" s="29"/>
-      <c r="AN307" s="29"/>
-      <c r="AO307" s="29"/>
-      <c r="AP307" s="29"/>
-      <c r="AQ307" s="29"/>
-      <c r="AR307" s="29"/>
-      <c r="AS307" s="29"/>
-      <c r="AT307" s="29"/>
-      <c r="AU307" s="29"/>
-      <c r="AV307" s="29"/>
-      <c r="AW307" s="29"/>
-      <c r="AX307" s="29"/>
-    </row>
-    <row r="308" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="69"/>
-      <c r="B308" s="70"/>
-      <c r="C308" s="55"/>
+      <c r="H307" s="86"/>
+      <c r="I307" s="17"/>
+      <c r="J307" s="17"/>
+      <c r="K307" s="17"/>
+      <c r="L307" s="17"/>
+      <c r="M307" s="17"/>
+      <c r="N307" s="17"/>
+      <c r="O307" s="17"/>
+      <c r="P307" s="17"/>
+      <c r="Q307" s="17"/>
+    </row>
+    <row r="308" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="65"/>
+      <c r="B308" s="50"/>
+      <c r="C308" s="52"/>
       <c r="D308" s="58"/>
-      <c r="E308" s="70"/>
-      <c r="F308" s="70"/>
+      <c r="E308" s="50"/>
+      <c r="F308" s="50"/>
       <c r="G308" s="81"/>
       <c r="H308" s="86"/>
       <c r="I308" s="17"/>
@@ -11041,46 +11260,14 @@
       <c r="O308" s="17"/>
       <c r="P308" s="17"/>
       <c r="Q308" s="17"/>
-      <c r="R308" s="26"/>
-      <c r="S308" s="26"/>
-      <c r="T308" s="26"/>
-      <c r="U308" s="26"/>
-      <c r="V308" s="26"/>
-      <c r="W308" s="26"/>
-      <c r="X308" s="26"/>
-      <c r="Y308" s="26"/>
-      <c r="Z308" s="26"/>
-      <c r="AB308" s="26"/>
-      <c r="AC308" s="26"/>
-      <c r="AD308" s="26"/>
-      <c r="AE308" s="26"/>
-      <c r="AF308" s="26"/>
-      <c r="AG308" s="26"/>
-      <c r="AH308" s="26"/>
-      <c r="AI308" s="26"/>
-      <c r="AJ308" s="26"/>
-      <c r="AK308" s="26"/>
-      <c r="AL308" s="26"/>
-      <c r="AM308" s="26"/>
-      <c r="AN308" s="26"/>
-      <c r="AO308" s="26"/>
-      <c r="AP308" s="26"/>
-      <c r="AQ308" s="26"/>
-      <c r="AR308" s="26"/>
-      <c r="AS308" s="26"/>
-      <c r="AT308" s="26"/>
-      <c r="AU308" s="26"/>
-      <c r="AV308" s="26"/>
-      <c r="AW308" s="26"/>
-      <c r="AX308" s="26"/>
-    </row>
-    <row r="309" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="69"/>
-      <c r="B309" s="70"/>
-      <c r="C309" s="55"/>
+    </row>
+    <row r="309" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="65"/>
+      <c r="B309" s="50"/>
+      <c r="C309" s="52"/>
       <c r="D309" s="58"/>
-      <c r="E309" s="70"/>
-      <c r="F309" s="70"/>
+      <c r="E309" s="50"/>
+      <c r="F309" s="50"/>
       <c r="G309" s="81"/>
       <c r="H309" s="86"/>
       <c r="I309" s="17"/>
@@ -11093,7 +11280,7 @@
       <c r="P309" s="17"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="65"/>
       <c r="B310" s="50"/>
       <c r="C310" s="52"/>
@@ -11112,11 +11299,11 @@
       <c r="P310" s="17"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="65"/>
       <c r="B311" s="50"/>
-      <c r="C311" s="52"/>
-      <c r="D311" s="57"/>
+      <c r="C311" s="50"/>
+      <c r="D311" s="58"/>
       <c r="E311" s="50"/>
       <c r="F311" s="50"/>
       <c r="G311" s="81"/>
@@ -11131,10 +11318,10 @@
       <c r="P311" s="17"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="65"/>
       <c r="B312" s="50"/>
-      <c r="C312" s="52"/>
+      <c r="C312" s="50"/>
       <c r="D312" s="58"/>
       <c r="E312" s="50"/>
       <c r="F312" s="50"/>
@@ -11150,11 +11337,11 @@
       <c r="P312" s="17"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="65"/>
+    <row r="313" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="50"/>
       <c r="B313" s="50"/>
-      <c r="C313" s="52"/>
-      <c r="D313" s="57"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="58"/>
       <c r="E313" s="50"/>
       <c r="F313" s="50"/>
       <c r="G313" s="81"/>
@@ -11169,14 +11356,15 @@
       <c r="P313" s="17"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A314" s="72"/>
-      <c r="B314" s="72"/>
-      <c r="C314" s="56"/>
-      <c r="D314" s="72"/>
-      <c r="E314" s="72"/>
-      <c r="F314" s="72"/>
-      <c r="G314" s="72"/>
+    <row r="314" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="50"/>
+      <c r="B314" s="50"/>
+      <c r="C314" s="50"/>
+      <c r="D314" s="58"/>
+      <c r="E314" s="50"/>
+      <c r="F314" s="50"/>
+      <c r="G314" s="81"/>
+      <c r="H314" s="86"/>
       <c r="I314" s="17"/>
       <c r="J314" s="17"/>
       <c r="K314" s="17"/>
@@ -11187,10 +11375,874 @@
       <c r="P314" s="17"/>
       <c r="Q314" s="17"/>
     </row>
+    <row r="315" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="50"/>
+      <c r="B315" s="50"/>
+      <c r="C315" s="50"/>
+      <c r="D315" s="58"/>
+      <c r="E315" s="50"/>
+      <c r="F315" s="50"/>
+      <c r="G315" s="81"/>
+      <c r="H315" s="86"/>
+      <c r="I315" s="17"/>
+      <c r="J315" s="17"/>
+      <c r="K315" s="17"/>
+      <c r="L315" s="17"/>
+      <c r="M315" s="17"/>
+      <c r="N315" s="17"/>
+      <c r="O315" s="17"/>
+      <c r="P315" s="17"/>
+      <c r="Q315" s="17"/>
+    </row>
+    <row r="316" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="50"/>
+      <c r="B316" s="50"/>
+      <c r="C316" s="50"/>
+      <c r="D316" s="58"/>
+      <c r="E316" s="50"/>
+      <c r="F316" s="50"/>
+      <c r="G316" s="81"/>
+      <c r="H316" s="86"/>
+      <c r="I316" s="17"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="17"/>
+      <c r="L316" s="17"/>
+      <c r="M316" s="17"/>
+      <c r="N316" s="17"/>
+      <c r="O316" s="17"/>
+      <c r="P316" s="17"/>
+      <c r="Q316" s="17"/>
+    </row>
+    <row r="317" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="50"/>
+      <c r="B317" s="50"/>
+      <c r="C317" s="50"/>
+      <c r="D317" s="58"/>
+      <c r="E317" s="50"/>
+      <c r="F317" s="50"/>
+      <c r="G317" s="81"/>
+      <c r="H317" s="86"/>
+      <c r="I317" s="17"/>
+      <c r="J317" s="17"/>
+      <c r="K317" s="17"/>
+      <c r="L317" s="17"/>
+      <c r="M317" s="17"/>
+      <c r="N317" s="17"/>
+      <c r="O317" s="17"/>
+      <c r="P317" s="17"/>
+      <c r="Q317" s="17"/>
+    </row>
+    <row r="318" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="50"/>
+      <c r="B318" s="50"/>
+      <c r="C318" s="50"/>
+      <c r="D318" s="58"/>
+      <c r="E318" s="50"/>
+      <c r="F318" s="50"/>
+      <c r="G318" s="81"/>
+      <c r="H318" s="86"/>
+      <c r="I318" s="17"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="17"/>
+      <c r="L318" s="17"/>
+      <c r="M318" s="17"/>
+      <c r="N318" s="17"/>
+      <c r="O318" s="17"/>
+      <c r="P318" s="17"/>
+      <c r="Q318" s="17"/>
+    </row>
+    <row r="319" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="65"/>
+      <c r="B319" s="50"/>
+      <c r="C319" s="52"/>
+      <c r="D319" s="57"/>
+      <c r="E319" s="50"/>
+      <c r="F319" s="50"/>
+      <c r="G319" s="81"/>
+      <c r="H319" s="86"/>
+      <c r="I319" s="17"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="17"/>
+      <c r="L319" s="17"/>
+      <c r="M319" s="17"/>
+      <c r="N319" s="17"/>
+      <c r="O319" s="17"/>
+      <c r="P319" s="17"/>
+      <c r="Q319" s="17"/>
+    </row>
+    <row r="320" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="65"/>
+      <c r="B320" s="50"/>
+      <c r="C320" s="52"/>
+      <c r="D320" s="57"/>
+      <c r="E320" s="50"/>
+      <c r="F320" s="50"/>
+      <c r="G320" s="81"/>
+      <c r="H320" s="86"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
+      <c r="N320" s="17"/>
+      <c r="O320" s="17"/>
+      <c r="P320" s="17"/>
+      <c r="Q320" s="17"/>
+    </row>
+    <row r="321" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="65"/>
+      <c r="B321" s="50"/>
+      <c r="C321" s="52"/>
+      <c r="D321" s="57"/>
+      <c r="E321" s="50"/>
+      <c r="F321" s="50"/>
+      <c r="G321" s="81"/>
+      <c r="H321" s="86"/>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="17"/>
+      <c r="L321" s="17"/>
+      <c r="M321" s="17"/>
+      <c r="N321" s="17"/>
+      <c r="O321" s="17"/>
+      <c r="P321" s="17"/>
+      <c r="Q321" s="17"/>
+    </row>
+    <row r="322" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="65"/>
+      <c r="B322" s="50"/>
+      <c r="C322" s="52"/>
+      <c r="D322" s="57"/>
+      <c r="E322" s="50"/>
+      <c r="F322" s="50"/>
+      <c r="G322" s="81"/>
+      <c r="H322" s="86"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="17"/>
+      <c r="L322" s="17"/>
+      <c r="M322" s="17"/>
+      <c r="N322" s="17"/>
+      <c r="O322" s="17"/>
+      <c r="P322" s="17"/>
+      <c r="Q322" s="17"/>
+    </row>
+    <row r="323" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="65"/>
+      <c r="B323" s="50"/>
+      <c r="C323" s="52"/>
+      <c r="D323" s="57"/>
+      <c r="E323" s="50"/>
+      <c r="F323" s="50"/>
+      <c r="G323" s="81"/>
+      <c r="H323" s="86"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="17"/>
+      <c r="L323" s="17"/>
+      <c r="M323" s="17"/>
+      <c r="N323" s="17"/>
+      <c r="O323" s="17"/>
+      <c r="P323" s="17"/>
+      <c r="Q323" s="17"/>
+    </row>
+    <row r="324" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="65"/>
+      <c r="B324" s="50"/>
+      <c r="C324" s="52"/>
+      <c r="D324" s="57"/>
+      <c r="E324" s="50"/>
+      <c r="F324" s="50"/>
+      <c r="G324" s="81"/>
+      <c r="H324" s="86"/>
+      <c r="I324" s="17"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="17"/>
+      <c r="L324" s="17"/>
+      <c r="M324" s="17"/>
+      <c r="N324" s="17"/>
+      <c r="O324" s="17"/>
+      <c r="P324" s="17"/>
+      <c r="Q324" s="17"/>
+    </row>
+    <row r="325" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="65"/>
+      <c r="B325" s="50"/>
+      <c r="C325" s="52"/>
+      <c r="D325" s="57"/>
+      <c r="E325" s="50"/>
+      <c r="F325" s="50"/>
+      <c r="G325" s="81"/>
+      <c r="H325" s="86"/>
+      <c r="I325" s="17"/>
+      <c r="J325" s="17"/>
+      <c r="K325" s="17"/>
+      <c r="L325" s="17"/>
+      <c r="M325" s="17"/>
+      <c r="N325" s="17"/>
+      <c r="O325" s="17"/>
+      <c r="P325" s="17"/>
+      <c r="Q325" s="17"/>
+    </row>
+    <row r="326" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="66"/>
+      <c r="B326" s="67"/>
+      <c r="C326" s="54"/>
+      <c r="D326" s="68"/>
+      <c r="E326" s="67"/>
+      <c r="F326" s="67"/>
+      <c r="G326" s="82"/>
+      <c r="H326" s="86"/>
+      <c r="I326" s="17"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="17"/>
+      <c r="L326" s="17"/>
+      <c r="M326" s="17"/>
+      <c r="N326" s="17"/>
+      <c r="O326" s="17"/>
+      <c r="P326" s="17"/>
+      <c r="Q326" s="17"/>
+    </row>
+    <row r="327" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="51"/>
+      <c r="B327" s="51"/>
+      <c r="C327" s="51"/>
+      <c r="D327" s="57"/>
+      <c r="E327" s="51"/>
+      <c r="F327" s="51"/>
+      <c r="G327" s="83"/>
+      <c r="H327" s="87"/>
+      <c r="I327" s="31"/>
+      <c r="J327" s="31"/>
+      <c r="K327" s="31"/>
+      <c r="L327" s="31"/>
+      <c r="M327" s="31"/>
+      <c r="N327" s="31"/>
+      <c r="O327" s="32"/>
+      <c r="P327" s="15"/>
+      <c r="Q327" s="15"/>
+    </row>
+    <row r="328" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="50"/>
+      <c r="B328" s="50"/>
+      <c r="C328" s="50"/>
+      <c r="D328" s="58"/>
+      <c r="E328" s="50"/>
+      <c r="F328" s="50"/>
+      <c r="G328" s="82"/>
+      <c r="H328" s="87"/>
+      <c r="I328" s="25"/>
+      <c r="J328" s="25"/>
+      <c r="K328" s="25"/>
+      <c r="L328" s="25"/>
+      <c r="M328" s="25"/>
+      <c r="N328" s="25"/>
+      <c r="O328" s="23"/>
+      <c r="P328" s="14"/>
+      <c r="Q328" s="14"/>
+      <c r="AA328" s="28"/>
+      <c r="AB328" s="24"/>
+      <c r="AC328" s="24"/>
+      <c r="AD328" s="24"/>
+      <c r="AE328" s="24"/>
+      <c r="AF328" s="24"/>
+      <c r="AG328" s="24"/>
+      <c r="AH328" s="24"/>
+      <c r="AI328" s="24"/>
+      <c r="AJ328" s="24"/>
+      <c r="AK328" s="24"/>
+      <c r="AL328" s="24"/>
+      <c r="AM328" s="24"/>
+      <c r="AN328" s="24"/>
+      <c r="AO328" s="24"/>
+      <c r="AP328" s="24"/>
+      <c r="AQ328" s="24"/>
+      <c r="AR328" s="24"/>
+      <c r="AS328" s="24"/>
+      <c r="AT328" s="24"/>
+      <c r="AU328" s="24"/>
+      <c r="AV328" s="24"/>
+      <c r="AW328" s="24"/>
+      <c r="AX328" s="24"/>
+    </row>
+    <row r="329" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="50"/>
+      <c r="B329" s="50"/>
+      <c r="C329" s="50"/>
+      <c r="D329" s="58"/>
+      <c r="E329" s="50"/>
+      <c r="F329" s="50"/>
+      <c r="G329" s="81"/>
+      <c r="H329" s="87"/>
+      <c r="I329" s="25"/>
+      <c r="J329" s="25"/>
+      <c r="K329" s="25"/>
+      <c r="L329" s="25"/>
+      <c r="M329" s="25"/>
+      <c r="N329" s="25"/>
+      <c r="O329" s="23"/>
+      <c r="P329" s="14"/>
+      <c r="Q329" s="14"/>
+      <c r="AA329" s="28"/>
+      <c r="AB329" s="24"/>
+      <c r="AC329" s="24"/>
+      <c r="AD329" s="24"/>
+      <c r="AE329" s="24"/>
+      <c r="AF329" s="24"/>
+      <c r="AG329" s="24"/>
+      <c r="AH329" s="24"/>
+      <c r="AI329" s="24"/>
+      <c r="AJ329" s="24"/>
+      <c r="AK329" s="24"/>
+      <c r="AL329" s="24"/>
+      <c r="AM329" s="24"/>
+      <c r="AN329" s="24"/>
+      <c r="AO329" s="24"/>
+      <c r="AP329" s="24"/>
+      <c r="AQ329" s="24"/>
+      <c r="AR329" s="24"/>
+      <c r="AS329" s="24"/>
+      <c r="AT329" s="24"/>
+      <c r="AU329" s="24"/>
+      <c r="AV329" s="24"/>
+      <c r="AW329" s="24"/>
+      <c r="AX329" s="24"/>
+    </row>
+    <row r="330" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="50"/>
+      <c r="B330" s="50"/>
+      <c r="C330" s="50"/>
+      <c r="D330" s="58"/>
+      <c r="E330" s="50"/>
+      <c r="F330" s="50"/>
+      <c r="G330" s="82"/>
+      <c r="H330" s="87"/>
+      <c r="I330" s="25"/>
+      <c r="J330" s="25"/>
+      <c r="K330" s="25"/>
+      <c r="L330" s="25"/>
+      <c r="M330" s="25"/>
+      <c r="N330" s="25"/>
+      <c r="O330" s="23"/>
+      <c r="P330" s="14"/>
+      <c r="Q330" s="14"/>
+      <c r="AA330" s="28"/>
+      <c r="AB330" s="24"/>
+      <c r="AC330" s="24"/>
+      <c r="AD330" s="24"/>
+      <c r="AE330" s="24"/>
+      <c r="AF330" s="24"/>
+      <c r="AG330" s="24"/>
+      <c r="AH330" s="24"/>
+      <c r="AI330" s="24"/>
+      <c r="AJ330" s="24"/>
+      <c r="AK330" s="24"/>
+      <c r="AL330" s="24"/>
+      <c r="AM330" s="24"/>
+      <c r="AN330" s="24"/>
+      <c r="AO330" s="24"/>
+      <c r="AP330" s="24"/>
+      <c r="AQ330" s="24"/>
+      <c r="AR330" s="24"/>
+      <c r="AS330" s="24"/>
+      <c r="AT330" s="24"/>
+      <c r="AU330" s="24"/>
+      <c r="AV330" s="24"/>
+      <c r="AW330" s="24"/>
+      <c r="AX330" s="24"/>
+    </row>
+    <row r="331" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="50"/>
+      <c r="B331" s="50"/>
+      <c r="C331" s="50"/>
+      <c r="D331" s="58"/>
+      <c r="E331" s="50"/>
+      <c r="F331" s="50"/>
+      <c r="G331" s="81"/>
+      <c r="H331" s="87"/>
+      <c r="I331" s="25"/>
+      <c r="J331" s="25"/>
+      <c r="K331" s="25"/>
+      <c r="L331" s="25"/>
+      <c r="M331" s="25"/>
+      <c r="N331" s="25"/>
+      <c r="O331" s="23"/>
+      <c r="P331" s="14"/>
+      <c r="Q331" s="14"/>
+      <c r="AA331" s="28"/>
+      <c r="AB331" s="24"/>
+      <c r="AC331" s="24"/>
+      <c r="AD331" s="24"/>
+      <c r="AE331" s="24"/>
+      <c r="AF331" s="24"/>
+      <c r="AG331" s="24"/>
+      <c r="AH331" s="24"/>
+      <c r="AI331" s="24"/>
+      <c r="AJ331" s="24"/>
+      <c r="AK331" s="24"/>
+      <c r="AL331" s="24"/>
+      <c r="AM331" s="24"/>
+      <c r="AN331" s="24"/>
+      <c r="AO331" s="24"/>
+      <c r="AP331" s="24"/>
+      <c r="AQ331" s="24"/>
+      <c r="AR331" s="24"/>
+      <c r="AS331" s="24"/>
+      <c r="AT331" s="24"/>
+      <c r="AU331" s="24"/>
+      <c r="AV331" s="24"/>
+      <c r="AW331" s="24"/>
+      <c r="AX331" s="24"/>
+    </row>
+    <row r="332" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="69"/>
+      <c r="B332" s="70"/>
+      <c r="C332" s="55"/>
+      <c r="D332" s="71"/>
+      <c r="E332" s="70"/>
+      <c r="F332" s="70"/>
+      <c r="G332" s="84"/>
+      <c r="H332" s="86"/>
+      <c r="I332" s="17"/>
+      <c r="J332" s="17"/>
+      <c r="K332" s="17"/>
+      <c r="L332" s="17"/>
+      <c r="M332" s="17"/>
+      <c r="N332" s="17"/>
+      <c r="O332" s="17"/>
+      <c r="P332" s="17"/>
+      <c r="Q332" s="17"/>
+      <c r="AB332" s="26"/>
+      <c r="AC332" s="26"/>
+      <c r="AD332" s="26"/>
+      <c r="AE332" s="26"/>
+      <c r="AF332" s="26"/>
+      <c r="AG332" s="26"/>
+      <c r="AH332" s="26"/>
+      <c r="AI332" s="26"/>
+      <c r="AJ332" s="26"/>
+      <c r="AK332" s="26"/>
+      <c r="AL332" s="26"/>
+      <c r="AM332" s="26"/>
+      <c r="AN332" s="26"/>
+      <c r="AO332" s="26"/>
+      <c r="AP332" s="26"/>
+      <c r="AQ332" s="26"/>
+      <c r="AR332" s="26"/>
+      <c r="AS332" s="26"/>
+      <c r="AT332" s="26"/>
+      <c r="AU332" s="26"/>
+      <c r="AV332" s="26"/>
+      <c r="AW332" s="26"/>
+      <c r="AX332" s="26"/>
+    </row>
+    <row r="333" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="65"/>
+      <c r="B333" s="50"/>
+      <c r="C333" s="52"/>
+      <c r="D333" s="57"/>
+      <c r="E333" s="50"/>
+      <c r="F333" s="50"/>
+      <c r="G333" s="81"/>
+      <c r="H333" s="86"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+      <c r="L333" s="17"/>
+      <c r="M333" s="17"/>
+      <c r="N333" s="17"/>
+      <c r="O333" s="17"/>
+      <c r="P333" s="17"/>
+      <c r="Q333" s="17"/>
+      <c r="AB333" s="26"/>
+      <c r="AC333" s="26"/>
+      <c r="AD333" s="26"/>
+      <c r="AE333" s="26"/>
+      <c r="AF333" s="26"/>
+      <c r="AG333" s="26"/>
+      <c r="AH333" s="26"/>
+      <c r="AI333" s="26"/>
+      <c r="AJ333" s="26"/>
+      <c r="AK333" s="26"/>
+      <c r="AL333" s="26"/>
+      <c r="AM333" s="26"/>
+      <c r="AN333" s="26"/>
+      <c r="AO333" s="26"/>
+      <c r="AP333" s="26"/>
+      <c r="AQ333" s="26"/>
+      <c r="AR333" s="26"/>
+      <c r="AS333" s="26"/>
+      <c r="AT333" s="26"/>
+      <c r="AU333" s="26"/>
+      <c r="AV333" s="26"/>
+      <c r="AW333" s="26"/>
+      <c r="AX333" s="26"/>
+    </row>
+    <row r="334" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="65"/>
+      <c r="B334" s="50"/>
+      <c r="C334" s="52"/>
+      <c r="D334" s="71"/>
+      <c r="E334" s="50"/>
+      <c r="F334" s="50"/>
+      <c r="G334" s="81"/>
+      <c r="H334" s="86"/>
+      <c r="I334" s="17"/>
+      <c r="J334" s="17"/>
+      <c r="K334" s="17"/>
+      <c r="L334" s="17"/>
+      <c r="M334" s="17"/>
+      <c r="N334" s="17"/>
+      <c r="O334" s="17"/>
+      <c r="P334" s="17"/>
+      <c r="Q334" s="17"/>
+      <c r="AB334" s="26"/>
+      <c r="AC334" s="26"/>
+      <c r="AD334" s="26"/>
+      <c r="AE334" s="26"/>
+      <c r="AF334" s="26"/>
+      <c r="AG334" s="26"/>
+      <c r="AH334" s="26"/>
+      <c r="AI334" s="26"/>
+      <c r="AJ334" s="26"/>
+      <c r="AK334" s="26"/>
+      <c r="AL334" s="26"/>
+      <c r="AM334" s="26"/>
+      <c r="AN334" s="26"/>
+      <c r="AO334" s="26"/>
+      <c r="AP334" s="26"/>
+      <c r="AQ334" s="26"/>
+      <c r="AR334" s="26"/>
+      <c r="AS334" s="26"/>
+      <c r="AT334" s="26"/>
+      <c r="AU334" s="26"/>
+      <c r="AV334" s="26"/>
+      <c r="AW334" s="26"/>
+      <c r="AX334" s="26"/>
+    </row>
+    <row r="335" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="66"/>
+      <c r="B335" s="67"/>
+      <c r="C335" s="54"/>
+      <c r="D335" s="68"/>
+      <c r="E335" s="67"/>
+      <c r="F335" s="67"/>
+      <c r="G335" s="82"/>
+      <c r="H335" s="86"/>
+      <c r="I335" s="17"/>
+      <c r="J335" s="17"/>
+      <c r="K335" s="17"/>
+      <c r="L335" s="17"/>
+      <c r="M335" s="17"/>
+      <c r="N335" s="17"/>
+      <c r="O335" s="17"/>
+      <c r="P335" s="17"/>
+      <c r="Q335" s="17"/>
+      <c r="R335" s="26"/>
+      <c r="S335" s="26"/>
+      <c r="T335" s="26"/>
+      <c r="U335" s="26"/>
+      <c r="V335" s="26"/>
+      <c r="W335" s="26"/>
+      <c r="X335" s="26"/>
+      <c r="Y335" s="26"/>
+      <c r="Z335" s="26"/>
+      <c r="AB335" s="26"/>
+      <c r="AC335" s="26"/>
+      <c r="AD335" s="26"/>
+      <c r="AE335" s="26"/>
+      <c r="AF335" s="26"/>
+      <c r="AG335" s="26"/>
+      <c r="AH335" s="26"/>
+      <c r="AI335" s="26"/>
+      <c r="AJ335" s="26"/>
+      <c r="AK335" s="26"/>
+      <c r="AL335" s="26"/>
+      <c r="AM335" s="26"/>
+      <c r="AN335" s="26"/>
+      <c r="AO335" s="26"/>
+      <c r="AP335" s="26"/>
+      <c r="AQ335" s="26"/>
+      <c r="AR335" s="26"/>
+      <c r="AS335" s="26"/>
+      <c r="AT335" s="26"/>
+      <c r="AU335" s="26"/>
+      <c r="AV335" s="26"/>
+      <c r="AW335" s="26"/>
+      <c r="AX335" s="26"/>
+    </row>
+    <row r="336" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="50"/>
+      <c r="B336" s="50"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="58"/>
+      <c r="E336" s="50"/>
+      <c r="F336" s="50"/>
+      <c r="G336" s="82"/>
+      <c r="H336" s="87"/>
+      <c r="I336" s="25"/>
+      <c r="J336" s="25"/>
+      <c r="K336" s="25"/>
+      <c r="L336" s="25"/>
+      <c r="M336" s="25"/>
+      <c r="N336" s="25"/>
+      <c r="O336" s="25"/>
+      <c r="P336" s="25"/>
+      <c r="Q336" s="25"/>
+      <c r="R336" s="29"/>
+      <c r="S336" s="29"/>
+      <c r="T336" s="29"/>
+      <c r="U336" s="29"/>
+      <c r="V336" s="29"/>
+      <c r="W336" s="29"/>
+      <c r="X336" s="29"/>
+      <c r="Y336" s="29"/>
+      <c r="Z336" s="29"/>
+      <c r="AA336" s="30"/>
+      <c r="AB336" s="29"/>
+      <c r="AC336" s="29"/>
+      <c r="AD336" s="29"/>
+      <c r="AE336" s="29"/>
+      <c r="AF336" s="29"/>
+      <c r="AG336" s="29"/>
+      <c r="AH336" s="29"/>
+      <c r="AI336" s="29"/>
+      <c r="AJ336" s="29"/>
+      <c r="AK336" s="29"/>
+      <c r="AL336" s="29"/>
+      <c r="AM336" s="29"/>
+      <c r="AN336" s="29"/>
+      <c r="AO336" s="29"/>
+      <c r="AP336" s="29"/>
+      <c r="AQ336" s="29"/>
+      <c r="AR336" s="29"/>
+      <c r="AS336" s="29"/>
+      <c r="AT336" s="29"/>
+      <c r="AU336" s="29"/>
+      <c r="AV336" s="29"/>
+      <c r="AW336" s="29"/>
+      <c r="AX336" s="29"/>
+    </row>
+    <row r="337" spans="1:50" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="50"/>
+      <c r="B337" s="50"/>
+      <c r="C337" s="50"/>
+      <c r="D337" s="58"/>
+      <c r="E337" s="50"/>
+      <c r="F337" s="50"/>
+      <c r="G337" s="81"/>
+      <c r="H337" s="87"/>
+      <c r="I337" s="25"/>
+      <c r="J337" s="25"/>
+      <c r="K337" s="25"/>
+      <c r="L337" s="25"/>
+      <c r="M337" s="25"/>
+      <c r="N337" s="25"/>
+      <c r="O337" s="25"/>
+      <c r="P337" s="25"/>
+      <c r="Q337" s="25"/>
+      <c r="R337" s="29"/>
+      <c r="S337" s="29"/>
+      <c r="T337" s="29"/>
+      <c r="U337" s="29"/>
+      <c r="V337" s="29"/>
+      <c r="W337" s="29"/>
+      <c r="X337" s="29"/>
+      <c r="Y337" s="29"/>
+      <c r="Z337" s="29"/>
+      <c r="AA337" s="30"/>
+      <c r="AB337" s="29"/>
+      <c r="AC337" s="29"/>
+      <c r="AD337" s="29"/>
+      <c r="AE337" s="29"/>
+      <c r="AF337" s="29"/>
+      <c r="AG337" s="29"/>
+      <c r="AH337" s="29"/>
+      <c r="AI337" s="29"/>
+      <c r="AJ337" s="29"/>
+      <c r="AK337" s="29"/>
+      <c r="AL337" s="29"/>
+      <c r="AM337" s="29"/>
+      <c r="AN337" s="29"/>
+      <c r="AO337" s="29"/>
+      <c r="AP337" s="29"/>
+      <c r="AQ337" s="29"/>
+      <c r="AR337" s="29"/>
+      <c r="AS337" s="29"/>
+      <c r="AT337" s="29"/>
+      <c r="AU337" s="29"/>
+      <c r="AV337" s="29"/>
+      <c r="AW337" s="29"/>
+      <c r="AX337" s="29"/>
+    </row>
+    <row r="338" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="69"/>
+      <c r="B338" s="70"/>
+      <c r="C338" s="55"/>
+      <c r="D338" s="58"/>
+      <c r="E338" s="70"/>
+      <c r="F338" s="70"/>
+      <c r="G338" s="81"/>
+      <c r="H338" s="86"/>
+      <c r="I338" s="17"/>
+      <c r="J338" s="17"/>
+      <c r="K338" s="17"/>
+      <c r="L338" s="17"/>
+      <c r="M338" s="17"/>
+      <c r="N338" s="17"/>
+      <c r="O338" s="17"/>
+      <c r="P338" s="17"/>
+      <c r="Q338" s="17"/>
+      <c r="R338" s="26"/>
+      <c r="S338" s="26"/>
+      <c r="T338" s="26"/>
+      <c r="U338" s="26"/>
+      <c r="V338" s="26"/>
+      <c r="W338" s="26"/>
+      <c r="X338" s="26"/>
+      <c r="Y338" s="26"/>
+      <c r="Z338" s="26"/>
+      <c r="AB338" s="26"/>
+      <c r="AC338" s="26"/>
+      <c r="AD338" s="26"/>
+      <c r="AE338" s="26"/>
+      <c r="AF338" s="26"/>
+      <c r="AG338" s="26"/>
+      <c r="AH338" s="26"/>
+      <c r="AI338" s="26"/>
+      <c r="AJ338" s="26"/>
+      <c r="AK338" s="26"/>
+      <c r="AL338" s="26"/>
+      <c r="AM338" s="26"/>
+      <c r="AN338" s="26"/>
+      <c r="AO338" s="26"/>
+      <c r="AP338" s="26"/>
+      <c r="AQ338" s="26"/>
+      <c r="AR338" s="26"/>
+      <c r="AS338" s="26"/>
+      <c r="AT338" s="26"/>
+      <c r="AU338" s="26"/>
+      <c r="AV338" s="26"/>
+      <c r="AW338" s="26"/>
+      <c r="AX338" s="26"/>
+    </row>
+    <row r="339" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="69"/>
+      <c r="B339" s="70"/>
+      <c r="C339" s="55"/>
+      <c r="D339" s="58"/>
+      <c r="E339" s="70"/>
+      <c r="F339" s="70"/>
+      <c r="G339" s="81"/>
+      <c r="H339" s="86"/>
+      <c r="I339" s="17"/>
+      <c r="J339" s="17"/>
+      <c r="K339" s="17"/>
+      <c r="L339" s="17"/>
+      <c r="M339" s="17"/>
+      <c r="N339" s="17"/>
+      <c r="O339" s="17"/>
+      <c r="P339" s="17"/>
+      <c r="Q339" s="17"/>
+    </row>
+    <row r="340" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="65"/>
+      <c r="B340" s="50"/>
+      <c r="C340" s="52"/>
+      <c r="D340" s="58"/>
+      <c r="E340" s="50"/>
+      <c r="F340" s="50"/>
+      <c r="G340" s="81"/>
+      <c r="H340" s="86"/>
+      <c r="I340" s="17"/>
+      <c r="J340" s="17"/>
+      <c r="K340" s="17"/>
+      <c r="L340" s="17"/>
+      <c r="M340" s="17"/>
+      <c r="N340" s="17"/>
+      <c r="O340" s="17"/>
+      <c r="P340" s="17"/>
+      <c r="Q340" s="17"/>
+    </row>
+    <row r="341" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="65"/>
+      <c r="B341" s="50"/>
+      <c r="C341" s="52"/>
+      <c r="D341" s="57"/>
+      <c r="E341" s="50"/>
+      <c r="F341" s="50"/>
+      <c r="G341" s="81"/>
+      <c r="H341" s="86"/>
+      <c r="I341" s="17"/>
+      <c r="J341" s="17"/>
+      <c r="K341" s="17"/>
+      <c r="L341" s="17"/>
+      <c r="M341" s="17"/>
+      <c r="N341" s="17"/>
+      <c r="O341" s="17"/>
+      <c r="P341" s="17"/>
+      <c r="Q341" s="17"/>
+    </row>
+    <row r="342" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="65"/>
+      <c r="B342" s="50"/>
+      <c r="C342" s="52"/>
+      <c r="D342" s="58"/>
+      <c r="E342" s="50"/>
+      <c r="F342" s="50"/>
+      <c r="G342" s="81"/>
+      <c r="H342" s="86"/>
+      <c r="I342" s="17"/>
+      <c r="J342" s="17"/>
+      <c r="K342" s="17"/>
+      <c r="L342" s="17"/>
+      <c r="M342" s="17"/>
+      <c r="N342" s="17"/>
+      <c r="O342" s="17"/>
+      <c r="P342" s="17"/>
+      <c r="Q342" s="17"/>
+    </row>
+    <row r="343" spans="1:50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="65"/>
+      <c r="B343" s="50"/>
+      <c r="C343" s="52"/>
+      <c r="D343" s="57"/>
+      <c r="E343" s="50"/>
+      <c r="F343" s="50"/>
+      <c r="G343" s="81"/>
+      <c r="H343" s="86"/>
+      <c r="I343" s="17"/>
+      <c r="J343" s="17"/>
+      <c r="K343" s="17"/>
+      <c r="L343" s="17"/>
+      <c r="M343" s="17"/>
+      <c r="N343" s="17"/>
+      <c r="O343" s="17"/>
+      <c r="P343" s="17"/>
+      <c r="Q343" s="17"/>
+    </row>
+    <row r="344" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A344" s="72"/>
+      <c r="B344" s="72"/>
+      <c r="C344" s="56"/>
+      <c r="D344" s="72"/>
+      <c r="E344" s="72"/>
+      <c r="F344" s="72"/>
+      <c r="G344" s="72"/>
+      <c r="I344" s="17"/>
+      <c r="J344" s="17"/>
+      <c r="K344" s="17"/>
+      <c r="L344" s="17"/>
+      <c r="M344" s="17"/>
+      <c r="N344" s="17"/>
+      <c r="O344" s="17"/>
+      <c r="P344" s="17"/>
+      <c r="Q344" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G313"/>
-  <sortState ref="A2:I505">
-    <sortCondition ref="A2:A505"/>
+  <autoFilter ref="A1:G343"/>
+  <sortState ref="A2:I535">
+    <sortCondition ref="A2:A535"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
